--- a/controle_atas.xlsx
+++ b/controle_atas.xlsx
@@ -628,7 +628,7 @@
         <v>16</v>
       </c>
       <c r="B2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -681,7 +681,7 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -734,7 +734,7 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -787,7 +787,7 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -840,7 +840,7 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -893,7 +893,7 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -946,7 +946,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -999,7 +999,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -1052,7 +1052,7 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>

--- a/controle_atas.xlsx
+++ b/controle_atas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="341">
   <si>
     <t>Status</t>
   </si>
@@ -73,13 +73,34 @@
     <t>1</t>
   </si>
   <si>
-    <t>003934</t>
-  </si>
-  <si>
-    <t>000410</t>
-  </si>
-  <si>
-    <t>008969</t>
+    <t>012213</t>
+  </si>
+  <si>
+    <t>012885</t>
+  </si>
+  <si>
+    <t>005601</t>
+  </si>
+  <si>
+    <t>004936</t>
+  </si>
+  <si>
+    <t>005400</t>
+  </si>
+  <si>
+    <t>012877</t>
+  </si>
+  <si>
+    <t>012813</t>
+  </si>
+  <si>
+    <t>008594</t>
+  </si>
+  <si>
+    <t>010260</t>
+  </si>
+  <si>
+    <t>009098</t>
   </si>
   <si>
     <t>2024</t>
@@ -91,22 +112,277 @@
     <t>000001</t>
   </si>
   <si>
+    <t>000006</t>
+  </si>
+  <si>
+    <t>000002</t>
+  </si>
+  <si>
+    <t>000003</t>
+  </si>
+  <si>
+    <t>000004</t>
+  </si>
+  <si>
+    <t>000005</t>
+  </si>
+  <si>
     <t>000007</t>
   </si>
   <si>
-    <t>000002</t>
-  </si>
-  <si>
-    <t>000003</t>
-  </si>
-  <si>
-    <t>000004</t>
-  </si>
-  <si>
-    <t>000005</t>
-  </si>
-  <si>
-    <t>000006</t>
+    <t>000008</t>
+  </si>
+  <si>
+    <t>000009</t>
+  </si>
+  <si>
+    <t>000010</t>
+  </si>
+  <si>
+    <t>000015</t>
+  </si>
+  <si>
+    <t>000012</t>
+  </si>
+  <si>
+    <t>000013</t>
+  </si>
+  <si>
+    <t>000014</t>
+  </si>
+  <si>
+    <t>000011</t>
+  </si>
+  <si>
+    <t>000016</t>
+  </si>
+  <si>
+    <t>000021</t>
+  </si>
+  <si>
+    <t>000017</t>
+  </si>
+  <si>
+    <t>000024</t>
+  </si>
+  <si>
+    <t>000023</t>
+  </si>
+  <si>
+    <t>000022</t>
+  </si>
+  <si>
+    <t>000025</t>
+  </si>
+  <si>
+    <t>000020</t>
+  </si>
+  <si>
+    <t>000019</t>
+  </si>
+  <si>
+    <t>000018</t>
+  </si>
+  <si>
+    <t>000028</t>
+  </si>
+  <si>
+    <t>000027</t>
+  </si>
+  <si>
+    <t>000029</t>
+  </si>
+  <si>
+    <t>000026</t>
+  </si>
+  <si>
+    <t>00183</t>
+  </si>
+  <si>
+    <t>00177</t>
+  </si>
+  <si>
+    <t>00173</t>
+  </si>
+  <si>
+    <t>00174</t>
+  </si>
+  <si>
+    <t>00175</t>
+  </si>
+  <si>
+    <t>00176</t>
+  </si>
+  <si>
+    <t>00172</t>
+  </si>
+  <si>
+    <t>00178</t>
+  </si>
+  <si>
+    <t>00179</t>
+  </si>
+  <si>
+    <t>00180</t>
+  </si>
+  <si>
+    <t>00181</t>
+  </si>
+  <si>
+    <t>00151</t>
+  </si>
+  <si>
+    <t>00162</t>
+  </si>
+  <si>
+    <t>00152</t>
+  </si>
+  <si>
+    <t>00153</t>
+  </si>
+  <si>
+    <t>00154</t>
+  </si>
+  <si>
+    <t>00155</t>
+  </si>
+  <si>
+    <t>00156</t>
+  </si>
+  <si>
+    <t>00157</t>
+  </si>
+  <si>
+    <t>00159</t>
+  </si>
+  <si>
+    <t>00160</t>
+  </si>
+  <si>
+    <t>00161</t>
+  </si>
+  <si>
+    <t>00158</t>
+  </si>
+  <si>
+    <t>00163</t>
+  </si>
+  <si>
+    <t>00168</t>
+  </si>
+  <si>
+    <t>00164</t>
+  </si>
+  <si>
+    <t>00171</t>
+  </si>
+  <si>
+    <t>00170</t>
+  </si>
+  <si>
+    <t>00169</t>
+  </si>
+  <si>
+    <t>00182</t>
+  </si>
+  <si>
+    <t>00167</t>
+  </si>
+  <si>
+    <t>00166</t>
+  </si>
+  <si>
+    <t>00165</t>
+  </si>
+  <si>
+    <t>00150</t>
+  </si>
+  <si>
+    <t>00148</t>
+  </si>
+  <si>
+    <t>00118</t>
+  </si>
+  <si>
+    <t>00134</t>
+  </si>
+  <si>
+    <t>00141</t>
+  </si>
+  <si>
+    <t>00136</t>
+  </si>
+  <si>
+    <t>00137</t>
+  </si>
+  <si>
+    <t>00138</t>
+  </si>
+  <si>
+    <t>00139</t>
+  </si>
+  <si>
+    <t>00140</t>
+  </si>
+  <si>
+    <t>00147</t>
+  </si>
+  <si>
+    <t>00142</t>
+  </si>
+  <si>
+    <t>00143</t>
+  </si>
+  <si>
+    <t>00144</t>
+  </si>
+  <si>
+    <t>00145</t>
+  </si>
+  <si>
+    <t>00146</t>
+  </si>
+  <si>
+    <t>00132</t>
+  </si>
+  <si>
+    <t>00133</t>
+  </si>
+  <si>
+    <t>00120</t>
+  </si>
+  <si>
+    <t>00131</t>
+  </si>
+  <si>
+    <t>00121</t>
+  </si>
+  <si>
+    <t>00129</t>
+  </si>
+  <si>
+    <t>00128</t>
+  </si>
+  <si>
+    <t>00127</t>
+  </si>
+  <si>
+    <t>00126</t>
+  </si>
+  <si>
+    <t>00125</t>
+  </si>
+  <si>
+    <t>00124</t>
+  </si>
+  <si>
+    <t>00123</t>
+  </si>
+  <si>
+    <t>00122</t>
+  </si>
+  <si>
+    <t>00130</t>
   </si>
   <si>
     <t>00010</t>
@@ -115,97 +391,652 @@
     <t>00009</t>
   </si>
   <si>
-    <t>00001</t>
-  </si>
-  <si>
-    <t>00002</t>
-  </si>
-  <si>
-    <t>00003</t>
-  </si>
-  <si>
-    <t>00004</t>
-  </si>
-  <si>
-    <t>00005</t>
-  </si>
-  <si>
-    <t>00007</t>
-  </si>
-  <si>
-    <t>00394502000144-1-003934/2024-000001</t>
-  </si>
-  <si>
-    <t>00394502000144-1-000410/2024-000007</t>
-  </si>
-  <si>
-    <t>00394502000144-1-000410/2024-000001</t>
-  </si>
-  <si>
-    <t>00394502000144-1-000410/2024-000002</t>
-  </si>
-  <si>
-    <t>00394502000144-1-000410/2024-000003</t>
-  </si>
-  <si>
-    <t>00394502000144-1-000410/2024-000004</t>
-  </si>
-  <si>
-    <t>00394502000144-1-000410/2024-000005</t>
-  </si>
-  <si>
-    <t>00394502000144-1-000410/2024-000006</t>
-  </si>
-  <si>
-    <t>00394502000144-1-008969/2023-000001</t>
-  </si>
-  <si>
-    <t>2024-06-13</t>
-  </si>
-  <si>
-    <t>2024-03-28</t>
-  </si>
-  <si>
-    <t>2023-10-31</t>
-  </si>
-  <si>
-    <t>2025-06-13</t>
-  </si>
-  <si>
-    <t>2025-03-28</t>
-  </si>
-  <si>
-    <t>2025-03-27</t>
-  </si>
-  <si>
-    <t>2024-10-31</t>
-  </si>
-  <si>
-    <t>2024-06-12</t>
-  </si>
-  <si>
-    <t>2024-03-27</t>
-  </si>
-  <si>
-    <t>2023-10-30</t>
-  </si>
-  <si>
-    <t>2024-06-27</t>
-  </si>
-  <si>
-    <t>Contratação de serviço de impressão em adesivo vinílico e adesivo vinílico perfurado, com instalação/aplicação e retirada, conforme medidas e plataformas de aplicação a partir das exigências estabelecidas no Edital.</t>
-  </si>
-  <si>
-    <t>Aquisição de gêneros alimentícios, a fim de atender necessidades do CENTRO DE COMUNICAÇÃO SOCIAL DA MARINHA.</t>
-  </si>
-  <si>
-    <t>Contratação do serviço de impressão digital em lona vinílica, com instalação/aplicação e retirada, conforme condições, quantidades e exigências estabelecidas neste instrumento, para atender às necessidades de divulgação deste Centro de Comunicação Social.</t>
-  </si>
-  <si>
-    <t>711100</t>
-  </si>
-  <si>
-    <t>CENTRO DE COMUNICAçãO SOCIAL DA MARINHA</t>
+    <t>00207</t>
+  </si>
+  <si>
+    <t>00200</t>
+  </si>
+  <si>
+    <t>00253</t>
+  </si>
+  <si>
+    <t>00251</t>
+  </si>
+  <si>
+    <t>00201</t>
+  </si>
+  <si>
+    <t>00252</t>
+  </si>
+  <si>
+    <t>00205</t>
+  </si>
+  <si>
+    <t>00199</t>
+  </si>
+  <si>
+    <t>00211</t>
+  </si>
+  <si>
+    <t>00224</t>
+  </si>
+  <si>
+    <t>00221</t>
+  </si>
+  <si>
+    <t>00206</t>
+  </si>
+  <si>
+    <t>00209</t>
+  </si>
+  <si>
+    <t>00219</t>
+  </si>
+  <si>
+    <t>00204</t>
+  </si>
+  <si>
+    <t>00218</t>
+  </si>
+  <si>
+    <t>00208</t>
+  </si>
+  <si>
+    <t>00220</t>
+  </si>
+  <si>
+    <t>00198</t>
+  </si>
+  <si>
+    <t>00230</t>
+  </si>
+  <si>
+    <t>00227</t>
+  </si>
+  <si>
+    <t>00212</t>
+  </si>
+  <si>
+    <t>00222</t>
+  </si>
+  <si>
+    <t>00250</t>
+  </si>
+  <si>
+    <t>00213</t>
+  </si>
+  <si>
+    <t>00214</t>
+  </si>
+  <si>
+    <t>00215</t>
+  </si>
+  <si>
+    <t>00216</t>
+  </si>
+  <si>
+    <t>00232</t>
+  </si>
+  <si>
+    <t>00231</t>
+  </si>
+  <si>
+    <t>00229</t>
+  </si>
+  <si>
+    <t>00228</t>
+  </si>
+  <si>
+    <t>00226</t>
+  </si>
+  <si>
+    <t>00225</t>
+  </si>
+  <si>
+    <t>00193</t>
+  </si>
+  <si>
+    <t>00194</t>
+  </si>
+  <si>
+    <t>00195</t>
+  </si>
+  <si>
+    <t>00196</t>
+  </si>
+  <si>
+    <t>00192</t>
+  </si>
+  <si>
+    <t>00149</t>
+  </si>
+  <si>
+    <t>00394502000144-1-012213/2024-000001</t>
+  </si>
+  <si>
+    <t>00394502000144-1-012885/2023-000006</t>
+  </si>
+  <si>
+    <t>00394502000144-1-012885/2023-000002</t>
+  </si>
+  <si>
+    <t>00394502000144-1-012885/2023-000003</t>
+  </si>
+  <si>
+    <t>00394502000144-1-012885/2023-000004</t>
+  </si>
+  <si>
+    <t>00394502000144-1-012885/2023-000005</t>
+  </si>
+  <si>
+    <t>00394502000144-1-012885/2023-000001</t>
+  </si>
+  <si>
+    <t>00394502000144-1-012885/2023-000007</t>
+  </si>
+  <si>
+    <t>00394502000144-1-012885/2023-000008</t>
+  </si>
+  <si>
+    <t>00394502000144-1-012885/2023-000009</t>
+  </si>
+  <si>
+    <t>00394502000144-1-012885/2023-000010</t>
+  </si>
+  <si>
+    <t>00394502000144-1-005601/2024-000004</t>
+  </si>
+  <si>
+    <t>00394502000144-1-005601/2024-000015</t>
+  </si>
+  <si>
+    <t>00394502000144-1-005601/2024-000005</t>
+  </si>
+  <si>
+    <t>00394502000144-1-005601/2024-000006</t>
+  </si>
+  <si>
+    <t>00394502000144-1-005601/2024-000007</t>
+  </si>
+  <si>
+    <t>00394502000144-1-005601/2024-000008</t>
+  </si>
+  <si>
+    <t>00394502000144-1-005601/2024-000009</t>
+  </si>
+  <si>
+    <t>00394502000144-1-005601/2024-000010</t>
+  </si>
+  <si>
+    <t>00394502000144-1-005601/2024-000012</t>
+  </si>
+  <si>
+    <t>00394502000144-1-005601/2024-000013</t>
+  </si>
+  <si>
+    <t>00394502000144-1-005601/2024-000014</t>
+  </si>
+  <si>
+    <t>00394502000144-1-005601/2024-000011</t>
+  </si>
+  <si>
+    <t>00394502000144-1-005601/2024-000016</t>
+  </si>
+  <si>
+    <t>00394502000144-1-005601/2024-000021</t>
+  </si>
+  <si>
+    <t>00394502000144-1-005601/2024-000017</t>
+  </si>
+  <si>
+    <t>00394502000144-1-005601/2024-000024</t>
+  </si>
+  <si>
+    <t>00394502000144-1-005601/2024-000023</t>
+  </si>
+  <si>
+    <t>00394502000144-1-005601/2024-000022</t>
+  </si>
+  <si>
+    <t>00394502000144-1-005601/2024-000025</t>
+  </si>
+  <si>
+    <t>00394502000144-1-005601/2024-000020</t>
+  </si>
+  <si>
+    <t>00394502000144-1-005601/2024-000019</t>
+  </si>
+  <si>
+    <t>00394502000144-1-005601/2024-000018</t>
+  </si>
+  <si>
+    <t>00394502000144-1-005601/2024-000003</t>
+  </si>
+  <si>
+    <t>00394502000144-1-005601/2024-000001</t>
+  </si>
+  <si>
+    <t>00394502000144-1-004936/2024-000001</t>
+  </si>
+  <si>
+    <t>00394502000144-1-005400/2024-000003</t>
+  </si>
+  <si>
+    <t>00394502000144-1-005400/2024-000009</t>
+  </si>
+  <si>
+    <t>00394502000144-1-005400/2024-000004</t>
+  </si>
+  <si>
+    <t>00394502000144-1-005400/2024-000005</t>
+  </si>
+  <si>
+    <t>00394502000144-1-005400/2024-000006</t>
+  </si>
+  <si>
+    <t>00394502000144-1-005400/2024-000007</t>
+  </si>
+  <si>
+    <t>00394502000144-1-005400/2024-000008</t>
+  </si>
+  <si>
+    <t>00394502000144-1-005400/2024-000015</t>
+  </si>
+  <si>
+    <t>00394502000144-1-005400/2024-000010</t>
+  </si>
+  <si>
+    <t>00394502000144-1-005400/2024-000011</t>
+  </si>
+  <si>
+    <t>00394502000144-1-005400/2024-000012</t>
+  </si>
+  <si>
+    <t>00394502000144-1-005400/2024-000013</t>
+  </si>
+  <si>
+    <t>00394502000144-1-005400/2024-000014</t>
+  </si>
+  <si>
+    <t>00394502000144-1-005400/2024-000001</t>
+  </si>
+  <si>
+    <t>00394502000144-1-005400/2024-000002</t>
+  </si>
+  <si>
+    <t>00394502000144-1-012877/2023-000001</t>
+  </si>
+  <si>
+    <t>00394502000144-1-012877/2023-000012</t>
+  </si>
+  <si>
+    <t>00394502000144-1-012877/2023-000002</t>
+  </si>
+  <si>
+    <t>00394502000144-1-012877/2023-000010</t>
+  </si>
+  <si>
+    <t>00394502000144-1-012877/2023-000009</t>
+  </si>
+  <si>
+    <t>00394502000144-1-012877/2023-000008</t>
+  </si>
+  <si>
+    <t>00394502000144-1-012877/2023-000007</t>
+  </si>
+  <si>
+    <t>00394502000144-1-012877/2023-000006</t>
+  </si>
+  <si>
+    <t>00394502000144-1-012877/2023-000005</t>
+  </si>
+  <si>
+    <t>00394502000144-1-012877/2023-000004</t>
+  </si>
+  <si>
+    <t>00394502000144-1-012877/2023-000003</t>
+  </si>
+  <si>
+    <t>00394502000144-1-012877/2023-000011</t>
+  </si>
+  <si>
+    <t>00394502000144-1-012813/2023-000001</t>
+  </si>
+  <si>
+    <t>00394502000144-1-012813/2023-000002</t>
+  </si>
+  <si>
+    <t>00394502000144-1-008594/2023-000028</t>
+  </si>
+  <si>
+    <t>00394502000144-1-008594/2023-000027</t>
+  </si>
+  <si>
+    <t>00394502000144-1-008594/2023-000029</t>
+  </si>
+  <si>
+    <t>00394502000144-1-008594/2023-000021</t>
+  </si>
+  <si>
+    <t>00394502000144-1-008594/2023-000024</t>
+  </si>
+  <si>
+    <t>00394502000144-1-008594/2023-000022</t>
+  </si>
+  <si>
+    <t>00394502000144-1-008594/2023-000023</t>
+  </si>
+  <si>
+    <t>00394502000144-1-008594/2023-000025</t>
+  </si>
+  <si>
+    <t>00394502000144-1-008594/2023-000010</t>
+  </si>
+  <si>
+    <t>00394502000144-1-010260/2023-000002</t>
+  </si>
+  <si>
+    <t>00394502000144-1-008594/2023-000019</t>
+  </si>
+  <si>
+    <t>00394502000144-1-008594/2023-000008</t>
+  </si>
+  <si>
+    <t>00394502000144-1-008594/2023-000009</t>
+  </si>
+  <si>
+    <t>00394502000144-1-008594/2023-000017</t>
+  </si>
+  <si>
+    <t>00394502000144-1-008594/2023-000007</t>
+  </si>
+  <si>
+    <t>00394502000144-1-008594/2023-000016</t>
+  </si>
+  <si>
+    <t>00394502000144-1-008594/2023-000026</t>
+  </si>
+  <si>
+    <t>00394502000144-1-008594/2023-000018</t>
+  </si>
+  <si>
+    <t>00394502000144-1-008594/2023-000006</t>
+  </si>
+  <si>
+    <t>00394502000144-1-010260/2023-000007</t>
+  </si>
+  <si>
+    <t>00394502000144-1-010260/2023-000004</t>
+  </si>
+  <si>
+    <t>00394502000144-1-008594/2023-000011</t>
+  </si>
+  <si>
+    <t>00394502000144-1-008594/2023-000020</t>
+  </si>
+  <si>
+    <t>00394502000144-1-010260/2023-000010</t>
+  </si>
+  <si>
+    <t>00394502000144-1-008594/2023-000012</t>
+  </si>
+  <si>
+    <t>00394502000144-1-008594/2023-000013</t>
+  </si>
+  <si>
+    <t>00394502000144-1-008594/2023-000014</t>
+  </si>
+  <si>
+    <t>00394502000144-1-008594/2023-000015</t>
+  </si>
+  <si>
+    <t>00394502000144-1-010260/2023-000009</t>
+  </si>
+  <si>
+    <t>00394502000144-1-010260/2023-000008</t>
+  </si>
+  <si>
+    <t>00394502000144-1-010260/2023-000006</t>
+  </si>
+  <si>
+    <t>00394502000144-1-010260/2023-000005</t>
+  </si>
+  <si>
+    <t>00394502000144-1-010260/2023-000003</t>
+  </si>
+  <si>
+    <t>00394502000144-1-010260/2023-000001</t>
+  </si>
+  <si>
+    <t>00394502000144-1-008594/2023-000005</t>
+  </si>
+  <si>
+    <t>00394502000144-1-008594/2023-000004</t>
+  </si>
+  <si>
+    <t>00394502000144-1-008594/2023-000003</t>
+  </si>
+  <si>
+    <t>00394502000144-1-008594/2023-000002</t>
+  </si>
+  <si>
+    <t>00394502000144-1-008594/2023-000001</t>
+  </si>
+  <si>
+    <t>00394502000144-1-009098/2023-000001</t>
+  </si>
+  <si>
+    <t>00394502000144-1-005601/2024-000002</t>
+  </si>
+  <si>
+    <t>2024-10-10</t>
+  </si>
+  <si>
+    <t>2024-09-13</t>
+  </si>
+  <si>
+    <t>2024-09-03</t>
+  </si>
+  <si>
+    <t>2024-09-02</t>
+  </si>
+  <si>
+    <t>2024-09-01</t>
+  </si>
+  <si>
+    <t>2024-08-31</t>
+  </si>
+  <si>
+    <t>2024-08-30</t>
+  </si>
+  <si>
+    <t>2024-08-23</t>
+  </si>
+  <si>
+    <t>2024-08-22</t>
+  </si>
+  <si>
+    <t>2024-03-16</t>
+  </si>
+  <si>
+    <t>2024-03-13</t>
+  </si>
+  <si>
+    <t>2024-02-09</t>
+  </si>
+  <si>
+    <t>2024-01-24</t>
+  </si>
+  <si>
+    <t>2024-01-23</t>
+  </si>
+  <si>
+    <t>2024-01-18</t>
+  </si>
+  <si>
+    <t>2024-01-17</t>
+  </si>
+  <si>
+    <t>2023-11-30</t>
+  </si>
+  <si>
+    <t>2023-11-08</t>
+  </si>
+  <si>
+    <t>2025-10-09</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-04</t>
+  </si>
+  <si>
+    <t>2025-09-03</t>
+  </si>
+  <si>
+    <t>2025-09-02</t>
+  </si>
+  <si>
+    <t>2025-09-01</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-08-29</t>
+  </si>
+  <si>
+    <t>2025-08-22</t>
+  </si>
+  <si>
+    <t>2025-08-21</t>
+  </si>
+  <si>
+    <t>2025-03-15</t>
+  </si>
+  <si>
+    <t>2025-03-12</t>
+  </si>
+  <si>
+    <t>2025-02-08</t>
+  </si>
+  <si>
+    <t>2025-01-23</t>
+  </si>
+  <si>
+    <t>2025-01-22</t>
+  </si>
+  <si>
+    <t>2025-01-17</t>
+  </si>
+  <si>
+    <t>2025-01-16</t>
+  </si>
+  <si>
+    <t>2024-11-29</t>
+  </si>
+  <si>
+    <t>2024-11-07</t>
+  </si>
+  <si>
+    <t>2024-10-09</t>
+  </si>
+  <si>
+    <t>2024-09-12</t>
+  </si>
+  <si>
+    <t>2024-08-12</t>
+  </si>
+  <si>
+    <t>2024-08-27</t>
+  </si>
+  <si>
+    <t>2024-08-21</t>
+  </si>
+  <si>
+    <t>2024-03-15</t>
+  </si>
+  <si>
+    <t>2024-03-12</t>
+  </si>
+  <si>
+    <t>2024-02-08</t>
+  </si>
+  <si>
+    <t>2024-01-22</t>
+  </si>
+  <si>
+    <t>2024-01-16</t>
+  </si>
+  <si>
+    <t>2023-11-29</t>
+  </si>
+  <si>
+    <t>2023-11-07</t>
+  </si>
+  <si>
+    <t>2024-08-29</t>
+  </si>
+  <si>
+    <t>2024-08-24</t>
+  </si>
+  <si>
+    <t>2024-03-20</t>
+  </si>
+  <si>
+    <t>2024-03-21</t>
+  </si>
+  <si>
+    <t>2024-02-15</t>
+  </si>
+  <si>
+    <t>2024-02-07</t>
+  </si>
+  <si>
+    <t>2024-01-26</t>
+  </si>
+  <si>
+    <t>2024-02-19</t>
+  </si>
+  <si>
+    <t>2024-05-28</t>
+  </si>
+  <si>
+    <t>O objeto da presente licitação é a escolha da proposta mais vantajosa para o registro de  Preços para eventual Aquisição de Gêneros Frigorificados e Hortifruti RS em proveito do Centro  de Intendência da Marinha em Rio Grande (CeIMRG) e suas Organizações Militares Apoiadas  (OMAp) sediadas na cidade do Rio Grande/RS, Porto Alegre/RS, Tramandaí/RS, Uruguaiana/RS .</t>
+  </si>
+  <si>
+    <t>O objeto da presente licitação é a escolha da proposta mais vantajosa para o registro  de Preços para eventual aquisição de Material Esportivo, em proveito do Centro de Intendência  da Marinha em Rio Grande (CeIMRG) e suas Organizações Militares Apoiadas (OMAp) sediadas  na cidade de Florianópolis/SC, Itajaí/SC, Laguna/SC e São Francisco do Sul/SC.</t>
+  </si>
+  <si>
+    <t>O objeto da presente licitação é a escolha da proposta mais vantajosa para o Registro de Preços para eventual aquisição de itens médicos-cirurgicos para utilização pelo Departamento de Farmácia e Laboratório, Departamento de Medicina e Departamento de Enfermagem da Policlínica Naval de Rio Grande (PNRG)</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada para prestação de serviço de transporte de usuários do Sistema de Saúde da Marinha (SSM) em UTI aérea, em caráter de urgência e/ou emergência, com equipe técnica especializada, incluindo o transporte terrestre do paciente da origem até a  aeronave, bem como da aeronave até a unidade hospitalar de destino, em Ambulância de Suporte Avançado - tipo “D”.</t>
+  </si>
+  <si>
+    <t>O objeto da presente licitação é a escolha da proposta mais vantajosa para a eventual  aquisição de materiais de odontológicos para o Departamento de Odontologia da Policlínica  Naval de Rio Grande (PNRG)</t>
+  </si>
+  <si>
+    <t>Aquisição de material esportivo, em proveito do Centro de Intendência da Marinha em  Rio Grande (CeIMRG) e suas Organizações Militares Apoiadas (OMAp) sediadas na cidade de Rio  Grande/RS, Porto Alegre/RS, Tramandaí/RS, Uruguaiana/RS</t>
+  </si>
+  <si>
+    <t>Aquisição de gás liquefeito de petróleo (GLP) para fornecimento às Organizações Militares subordinadas ao Comando do 5º Distrito Naval (Com5ºDN), bem como aos navios da Marinha do Brasil em trânsito na área, conforme condições, quantidades e exigências estabelecidas neste instrumento e tabela constante no Apêndice II.</t>
+  </si>
+  <si>
+    <t>O objeto da presente licitação é a contratação de solução de tecnologia da informação e  comunicação de aquisição de material de informática em proveito do Centro de Intendência da  Marinha em Rio Grande (CeIMRG) e suas Organizações Militares Apoiadas (OMAp), sediadas na  cidade do Rio Grande/RS, da Capitania Fluvial de Porto Alegre/RS, da Delegacia Fluvial de  Uruguaiana/RS e Agência da Capitania dos Portos em Tramandaí/RS,</t>
+  </si>
+  <si>
+    <t>O objeto da presente licitação é a escolha da proposta mais vantajosa para o registro de Preços para eventual aquisição de Material Hospitalar e Laboratorial para uso do Departamento de Farmácia e Laboratório da Policlínica Naval de Rio Grande (PNRG)</t>
+  </si>
+  <si>
+    <t>O objeto da presente licitação é a escolha da proposta mais vantajosa para o Registro de Preços para eventual contratação de Pessoa Jurídica  Especializada e credenciadas pela Diretoria de Portos e Costas (DPC) para prestação de serviços de instrução e de coordenação de 03 cursos, previstos no Programa do Ensino Profissional Marítimo para Portuários - 2023 (PREPOM-Portuários/2023).</t>
+  </si>
+  <si>
+    <t>785810</t>
+  </si>
+  <si>
+    <t>CENTRO DE INTEND.DA MARINHA EM RIO GRANDE</t>
   </si>
 </sst>
 </file>
@@ -563,7 +1394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,7 +1459,7 @@
         <v>16</v>
       </c>
       <c r="B2">
-        <v>234</v>
+        <v>344</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -640,40 +1471,40 @@
         <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="K2" t="s">
-        <v>48</v>
+        <v>271</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>289</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>308</v>
       </c>
       <c r="N2" t="s">
-        <v>58</v>
+        <v>308</v>
       </c>
       <c r="O2" t="s">
-        <v>59</v>
+        <v>329</v>
       </c>
       <c r="P2" t="s">
-        <v>62</v>
+        <v>339</v>
       </c>
       <c r="Q2" t="s">
-        <v>63</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -681,7 +1512,7 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>157</v>
+        <v>320</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -693,40 +1524,40 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="K3" t="s">
-        <v>49</v>
+        <v>272</v>
       </c>
       <c r="L3" t="s">
-        <v>52</v>
+        <v>290</v>
       </c>
       <c r="M3" t="s">
-        <v>56</v>
+        <v>309</v>
       </c>
       <c r="N3" t="s">
-        <v>56</v>
+        <v>272</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>330</v>
       </c>
       <c r="P3" t="s">
-        <v>62</v>
+        <v>339</v>
       </c>
       <c r="Q3" t="s">
-        <v>63</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -734,7 +1565,7 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>156</v>
+        <v>320</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -746,40 +1577,40 @@
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>167</v>
       </c>
       <c r="K4" t="s">
-        <v>49</v>
+        <v>272</v>
       </c>
       <c r="L4" t="s">
-        <v>53</v>
+        <v>290</v>
       </c>
       <c r="M4" t="s">
-        <v>56</v>
+        <v>309</v>
       </c>
       <c r="N4" t="s">
-        <v>56</v>
+        <v>272</v>
       </c>
       <c r="O4" t="s">
-        <v>60</v>
+        <v>330</v>
       </c>
       <c r="P4" t="s">
-        <v>62</v>
+        <v>339</v>
       </c>
       <c r="Q4" t="s">
-        <v>63</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -787,7 +1618,7 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>156</v>
+        <v>320</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -799,40 +1630,40 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>168</v>
       </c>
       <c r="K5" t="s">
-        <v>49</v>
+        <v>272</v>
       </c>
       <c r="L5" t="s">
-        <v>53</v>
+        <v>290</v>
       </c>
       <c r="M5" t="s">
-        <v>56</v>
+        <v>309</v>
       </c>
       <c r="N5" t="s">
-        <v>56</v>
+        <v>272</v>
       </c>
       <c r="O5" t="s">
-        <v>60</v>
+        <v>330</v>
       </c>
       <c r="P5" t="s">
-        <v>62</v>
+        <v>339</v>
       </c>
       <c r="Q5" t="s">
-        <v>63</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -840,7 +1671,7 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>156</v>
+        <v>320</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -852,40 +1683,40 @@
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>169</v>
       </c>
       <c r="K6" t="s">
-        <v>49</v>
+        <v>272</v>
       </c>
       <c r="L6" t="s">
-        <v>53</v>
+        <v>290</v>
       </c>
       <c r="M6" t="s">
-        <v>56</v>
+        <v>309</v>
       </c>
       <c r="N6" t="s">
-        <v>56</v>
+        <v>272</v>
       </c>
       <c r="O6" t="s">
-        <v>60</v>
+        <v>330</v>
       </c>
       <c r="P6" t="s">
-        <v>62</v>
+        <v>339</v>
       </c>
       <c r="Q6" t="s">
-        <v>63</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -893,7 +1724,7 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>156</v>
+        <v>320</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -905,40 +1736,40 @@
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="K7" t="s">
-        <v>49</v>
+        <v>272</v>
       </c>
       <c r="L7" t="s">
-        <v>53</v>
+        <v>290</v>
       </c>
       <c r="M7" t="s">
-        <v>56</v>
+        <v>309</v>
       </c>
       <c r="N7" t="s">
-        <v>56</v>
+        <v>272</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>330</v>
       </c>
       <c r="P7" t="s">
-        <v>62</v>
+        <v>339</v>
       </c>
       <c r="Q7" t="s">
-        <v>63</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -946,7 +1777,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>156</v>
+        <v>320</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -958,40 +1789,40 @@
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="I8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="K8" t="s">
-        <v>49</v>
+        <v>272</v>
       </c>
       <c r="L8" t="s">
-        <v>53</v>
+        <v>290</v>
       </c>
       <c r="M8" t="s">
-        <v>56</v>
+        <v>309</v>
       </c>
       <c r="N8" t="s">
-        <v>56</v>
+        <v>272</v>
       </c>
       <c r="O8" t="s">
-        <v>60</v>
+        <v>330</v>
       </c>
       <c r="P8" t="s">
-        <v>62</v>
+        <v>339</v>
       </c>
       <c r="Q8" t="s">
-        <v>63</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -999,7 +1830,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>156</v>
+        <v>320</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -1011,40 +1842,40 @@
         <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="I9" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="K9" t="s">
-        <v>49</v>
+        <v>272</v>
       </c>
       <c r="L9" t="s">
-        <v>53</v>
+        <v>290</v>
       </c>
       <c r="M9" t="s">
-        <v>56</v>
+        <v>309</v>
       </c>
       <c r="N9" t="s">
-        <v>56</v>
+        <v>272</v>
       </c>
       <c r="O9" t="s">
-        <v>60</v>
+        <v>330</v>
       </c>
       <c r="P9" t="s">
-        <v>62</v>
+        <v>339</v>
       </c>
       <c r="Q9" t="s">
-        <v>63</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1052,7 +1883,7 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>320</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1061,43 +1892,5184 @@
         <v>18</v>
       </c>
       <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" t="s">
+        <v>173</v>
+      </c>
+      <c r="K10" t="s">
+        <v>272</v>
+      </c>
+      <c r="L10" t="s">
+        <v>290</v>
+      </c>
+      <c r="M10" t="s">
+        <v>309</v>
+      </c>
+      <c r="N10" t="s">
+        <v>272</v>
+      </c>
+      <c r="O10" t="s">
+        <v>330</v>
+      </c>
+      <c r="P10" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>320</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" t="s">
+        <v>174</v>
+      </c>
+      <c r="K11" t="s">
+        <v>272</v>
+      </c>
+      <c r="L11" t="s">
+        <v>290</v>
+      </c>
+      <c r="M11" t="s">
+        <v>309</v>
+      </c>
+      <c r="N11" t="s">
+        <v>272</v>
+      </c>
+      <c r="O11" t="s">
+        <v>330</v>
+      </c>
+      <c r="P11" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>320</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" t="s">
+        <v>175</v>
+      </c>
+      <c r="K12" t="s">
+        <v>272</v>
+      </c>
+      <c r="L12" t="s">
+        <v>290</v>
+      </c>
+      <c r="M12" t="s">
+        <v>309</v>
+      </c>
+      <c r="N12" t="s">
+        <v>272</v>
+      </c>
+      <c r="O12" t="s">
+        <v>330</v>
+      </c>
+      <c r="P12" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>309</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
         <v>21</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" t="s">
+        <v>176</v>
+      </c>
+      <c r="K13" t="s">
+        <v>273</v>
+      </c>
+      <c r="L13" t="s">
+        <v>291</v>
+      </c>
+      <c r="M13" t="s">
+        <v>277</v>
+      </c>
+      <c r="N13" t="s">
+        <v>309</v>
+      </c>
+      <c r="O13" t="s">
+        <v>331</v>
+      </c>
+      <c r="P13" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>308</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" t="s">
+        <v>177</v>
+      </c>
+      <c r="K14" t="s">
+        <v>274</v>
+      </c>
+      <c r="L14" t="s">
+        <v>292</v>
+      </c>
+      <c r="M14" t="s">
+        <v>277</v>
+      </c>
+      <c r="N14" t="s">
+        <v>309</v>
+      </c>
+      <c r="O14" t="s">
+        <v>331</v>
+      </c>
+      <c r="P14" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>308</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" t="s">
+        <v>178</v>
+      </c>
+      <c r="K15" t="s">
+        <v>274</v>
+      </c>
+      <c r="L15" t="s">
+        <v>292</v>
+      </c>
+      <c r="M15" t="s">
+        <v>277</v>
+      </c>
+      <c r="N15" t="s">
+        <v>309</v>
+      </c>
+      <c r="O15" t="s">
+        <v>331</v>
+      </c>
+      <c r="P15" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>308</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" t="s">
+        <v>179</v>
+      </c>
+      <c r="K16" t="s">
+        <v>274</v>
+      </c>
+      <c r="L16" t="s">
+        <v>292</v>
+      </c>
+      <c r="M16" t="s">
+        <v>277</v>
+      </c>
+      <c r="N16" t="s">
+        <v>309</v>
+      </c>
+      <c r="O16" t="s">
+        <v>331</v>
+      </c>
+      <c r="P16" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>308</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" t="s">
+        <v>180</v>
+      </c>
+      <c r="K17" t="s">
+        <v>274</v>
+      </c>
+      <c r="L17" t="s">
+        <v>292</v>
+      </c>
+      <c r="M17" t="s">
+        <v>277</v>
+      </c>
+      <c r="N17" t="s">
+        <v>309</v>
+      </c>
+      <c r="O17" t="s">
+        <v>331</v>
+      </c>
+      <c r="P17" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>308</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" t="s">
+        <v>76</v>
+      </c>
+      <c r="I18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" t="s">
+        <v>181</v>
+      </c>
+      <c r="K18" t="s">
+        <v>274</v>
+      </c>
+      <c r="L18" t="s">
+        <v>292</v>
+      </c>
+      <c r="M18" t="s">
+        <v>277</v>
+      </c>
+      <c r="N18" t="s">
+        <v>309</v>
+      </c>
+      <c r="O18" t="s">
+        <v>331</v>
+      </c>
+      <c r="P18" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>308</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" t="s">
+        <v>182</v>
+      </c>
+      <c r="K19" t="s">
+        <v>274</v>
+      </c>
+      <c r="L19" t="s">
+        <v>292</v>
+      </c>
+      <c r="M19" t="s">
+        <v>277</v>
+      </c>
+      <c r="N19" t="s">
+        <v>309</v>
+      </c>
+      <c r="O19" t="s">
+        <v>331</v>
+      </c>
+      <c r="P19" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>308</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" t="s">
+        <v>78</v>
+      </c>
+      <c r="I20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" t="s">
+        <v>183</v>
+      </c>
+      <c r="K20" t="s">
+        <v>274</v>
+      </c>
+      <c r="L20" t="s">
+        <v>292</v>
+      </c>
+      <c r="M20" t="s">
+        <v>277</v>
+      </c>
+      <c r="N20" t="s">
+        <v>309</v>
+      </c>
+      <c r="O20" t="s">
+        <v>331</v>
+      </c>
+      <c r="P20" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <v>308</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" t="s">
+        <v>79</v>
+      </c>
+      <c r="I21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" t="s">
+        <v>184</v>
+      </c>
+      <c r="K21" t="s">
+        <v>274</v>
+      </c>
+      <c r="L21" t="s">
+        <v>292</v>
+      </c>
+      <c r="M21" t="s">
+        <v>277</v>
+      </c>
+      <c r="N21" t="s">
+        <v>309</v>
+      </c>
+      <c r="O21" t="s">
+        <v>331</v>
+      </c>
+      <c r="P21" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>308</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" t="s">
+        <v>80</v>
+      </c>
+      <c r="I22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" t="s">
+        <v>185</v>
+      </c>
+      <c r="K22" t="s">
+        <v>274</v>
+      </c>
+      <c r="L22" t="s">
+        <v>292</v>
+      </c>
+      <c r="M22" t="s">
+        <v>277</v>
+      </c>
+      <c r="N22" t="s">
+        <v>309</v>
+      </c>
+      <c r="O22" t="s">
+        <v>331</v>
+      </c>
+      <c r="P22" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23">
+        <v>308</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" t="s">
+        <v>186</v>
+      </c>
+      <c r="K23" t="s">
+        <v>274</v>
+      </c>
+      <c r="L23" t="s">
+        <v>292</v>
+      </c>
+      <c r="M23" t="s">
+        <v>277</v>
+      </c>
+      <c r="N23" t="s">
+        <v>309</v>
+      </c>
+      <c r="O23" t="s">
+        <v>331</v>
+      </c>
+      <c r="P23" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24">
+        <v>308</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>82</v>
+      </c>
+      <c r="I24" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" t="s">
+        <v>187</v>
+      </c>
+      <c r="K24" t="s">
+        <v>274</v>
+      </c>
+      <c r="L24" t="s">
+        <v>292</v>
+      </c>
+      <c r="M24" t="s">
+        <v>277</v>
+      </c>
+      <c r="N24" t="s">
+        <v>309</v>
+      </c>
+      <c r="O24" t="s">
+        <v>331</v>
+      </c>
+      <c r="P24" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25">
+        <v>308</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>83</v>
+      </c>
+      <c r="I25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" t="s">
+        <v>188</v>
+      </c>
+      <c r="K25" t="s">
+        <v>274</v>
+      </c>
+      <c r="L25" t="s">
+        <v>292</v>
+      </c>
+      <c r="M25" t="s">
+        <v>277</v>
+      </c>
+      <c r="N25" t="s">
+        <v>309</v>
+      </c>
+      <c r="O25" t="s">
+        <v>331</v>
+      </c>
+      <c r="P25" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26">
+        <v>308</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" t="s">
+        <v>47</v>
+      </c>
+      <c r="H26" t="s">
+        <v>84</v>
+      </c>
+      <c r="I26" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" t="s">
+        <v>189</v>
+      </c>
+      <c r="K26" t="s">
+        <v>274</v>
+      </c>
+      <c r="L26" t="s">
+        <v>292</v>
+      </c>
+      <c r="M26" t="s">
+        <v>277</v>
+      </c>
+      <c r="N26" t="s">
+        <v>309</v>
+      </c>
+      <c r="O26" t="s">
+        <v>331</v>
+      </c>
+      <c r="P26" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27">
+        <v>308</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27" t="s">
+        <v>85</v>
+      </c>
+      <c r="I27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" t="s">
+        <v>190</v>
+      </c>
+      <c r="K27" t="s">
+        <v>274</v>
+      </c>
+      <c r="L27" t="s">
+        <v>292</v>
+      </c>
+      <c r="M27" t="s">
+        <v>277</v>
+      </c>
+      <c r="N27" t="s">
+        <v>309</v>
+      </c>
+      <c r="O27" t="s">
+        <v>331</v>
+      </c>
+      <c r="P27" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28">
+        <v>308</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" t="s">
+        <v>86</v>
+      </c>
+      <c r="I28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" t="s">
+        <v>191</v>
+      </c>
+      <c r="K28" t="s">
+        <v>274</v>
+      </c>
+      <c r="L28" t="s">
+        <v>292</v>
+      </c>
+      <c r="M28" t="s">
+        <v>277</v>
+      </c>
+      <c r="N28" t="s">
+        <v>309</v>
+      </c>
+      <c r="O28" t="s">
+        <v>331</v>
+      </c>
+      <c r="P28" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29">
+        <v>308</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H29" t="s">
+        <v>87</v>
+      </c>
+      <c r="I29" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" t="s">
+        <v>192</v>
+      </c>
+      <c r="K29" t="s">
+        <v>274</v>
+      </c>
+      <c r="L29" t="s">
+        <v>292</v>
+      </c>
+      <c r="M29" t="s">
+        <v>277</v>
+      </c>
+      <c r="N29" t="s">
+        <v>309</v>
+      </c>
+      <c r="O29" t="s">
+        <v>331</v>
+      </c>
+      <c r="P29" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30">
+        <v>308</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" t="s">
+        <v>51</v>
+      </c>
+      <c r="H30" t="s">
+        <v>88</v>
+      </c>
+      <c r="I30" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" t="s">
+        <v>193</v>
+      </c>
+      <c r="K30" t="s">
+        <v>274</v>
+      </c>
+      <c r="L30" t="s">
+        <v>292</v>
+      </c>
+      <c r="M30" t="s">
+        <v>277</v>
+      </c>
+      <c r="N30" t="s">
+        <v>309</v>
+      </c>
+      <c r="O30" t="s">
+        <v>331</v>
+      </c>
+      <c r="P30" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31">
+        <v>308</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31" t="s">
+        <v>89</v>
+      </c>
+      <c r="I31" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" t="s">
+        <v>194</v>
+      </c>
+      <c r="K31" t="s">
+        <v>273</v>
+      </c>
+      <c r="L31" t="s">
+        <v>292</v>
+      </c>
+      <c r="M31" t="s">
+        <v>277</v>
+      </c>
+      <c r="N31" t="s">
+        <v>309</v>
+      </c>
+      <c r="O31" t="s">
+        <v>331</v>
+      </c>
+      <c r="P31" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32">
+        <v>308</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" t="s">
+        <v>53</v>
+      </c>
+      <c r="H32" t="s">
+        <v>90</v>
+      </c>
+      <c r="I32" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" t="s">
+        <v>195</v>
+      </c>
+      <c r="K32" t="s">
+        <v>274</v>
+      </c>
+      <c r="L32" t="s">
+        <v>292</v>
+      </c>
+      <c r="M32" t="s">
+        <v>277</v>
+      </c>
+      <c r="N32" t="s">
+        <v>309</v>
+      </c>
+      <c r="O32" t="s">
+        <v>331</v>
+      </c>
+      <c r="P32" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33">
+        <v>308</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" t="s">
+        <v>54</v>
+      </c>
+      <c r="H33" t="s">
+        <v>91</v>
+      </c>
+      <c r="I33" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" t="s">
+        <v>196</v>
+      </c>
+      <c r="K33" t="s">
+        <v>274</v>
+      </c>
+      <c r="L33" t="s">
+        <v>292</v>
+      </c>
+      <c r="M33" t="s">
+        <v>277</v>
+      </c>
+      <c r="N33" t="s">
+        <v>309</v>
+      </c>
+      <c r="O33" t="s">
+        <v>331</v>
+      </c>
+      <c r="P33" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34">
+        <v>308</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" t="s">
+        <v>55</v>
+      </c>
+      <c r="H34" t="s">
+        <v>92</v>
+      </c>
+      <c r="I34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" t="s">
+        <v>197</v>
+      </c>
+      <c r="K34" t="s">
+        <v>274</v>
+      </c>
+      <c r="L34" t="s">
+        <v>292</v>
+      </c>
+      <c r="M34" t="s">
+        <v>277</v>
+      </c>
+      <c r="N34" t="s">
+        <v>309</v>
+      </c>
+      <c r="O34" t="s">
+        <v>331</v>
+      </c>
+      <c r="P34" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35">
+        <v>307</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" t="s">
+        <v>93</v>
+      </c>
+      <c r="I35" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35" t="s">
+        <v>198</v>
+      </c>
+      <c r="K35" t="s">
+        <v>275</v>
+      </c>
+      <c r="L35" t="s">
+        <v>293</v>
+      </c>
+      <c r="M35" t="s">
+        <v>277</v>
+      </c>
+      <c r="N35" t="s">
+        <v>309</v>
+      </c>
+      <c r="O35" t="s">
+        <v>331</v>
+      </c>
+      <c r="P35" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36">
+        <v>306</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" t="s">
+        <v>94</v>
+      </c>
+      <c r="I36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J36" t="s">
+        <v>199</v>
+      </c>
+      <c r="K36" t="s">
+        <v>274</v>
+      </c>
+      <c r="L36" t="s">
+        <v>294</v>
+      </c>
+      <c r="M36" t="s">
+        <v>277</v>
+      </c>
+      <c r="N36" t="s">
+        <v>309</v>
+      </c>
+      <c r="O36" t="s">
+        <v>331</v>
+      </c>
+      <c r="P36" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37">
+        <v>304</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" t="s">
+        <v>31</v>
+      </c>
+      <c r="H37" t="s">
+        <v>95</v>
+      </c>
+      <c r="I37" t="s">
+        <v>29</v>
+      </c>
+      <c r="J37" t="s">
+        <v>200</v>
+      </c>
+      <c r="K37" t="s">
+        <v>276</v>
+      </c>
+      <c r="L37" t="s">
+        <v>295</v>
+      </c>
+      <c r="M37" t="s">
+        <v>310</v>
+      </c>
+      <c r="N37" t="s">
+        <v>277</v>
+      </c>
+      <c r="O37" t="s">
+        <v>332</v>
+      </c>
+      <c r="P37" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38">
+        <v>303</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" t="s">
         <v>23</v>
       </c>
-      <c r="G10" t="s">
+      <c r="F38" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38" t="s">
+        <v>34</v>
+      </c>
+      <c r="H38" t="s">
+        <v>96</v>
+      </c>
+      <c r="I38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J38" t="s">
+        <v>201</v>
+      </c>
+      <c r="K38" t="s">
+        <v>277</v>
+      </c>
+      <c r="L38" t="s">
+        <v>296</v>
+      </c>
+      <c r="M38" t="s">
+        <v>311</v>
+      </c>
+      <c r="N38" t="s">
+        <v>320</v>
+      </c>
+      <c r="O38" t="s">
+        <v>333</v>
+      </c>
+      <c r="P38" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39">
+        <v>303</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" t="s">
+        <v>39</v>
+      </c>
+      <c r="H39" t="s">
+        <v>97</v>
+      </c>
+      <c r="I39" t="s">
+        <v>29</v>
+      </c>
+      <c r="J39" t="s">
+        <v>202</v>
+      </c>
+      <c r="K39" t="s">
+        <v>277</v>
+      </c>
+      <c r="L39" t="s">
+        <v>296</v>
+      </c>
+      <c r="M39" t="s">
+        <v>311</v>
+      </c>
+      <c r="N39" t="s">
+        <v>320</v>
+      </c>
+      <c r="O39" t="s">
+        <v>333</v>
+      </c>
+      <c r="P39" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40">
+        <v>303</v>
+      </c>
+      <c r="C40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" t="s">
+        <v>29</v>
+      </c>
+      <c r="G40" t="s">
+        <v>35</v>
+      </c>
+      <c r="H40" t="s">
+        <v>98</v>
+      </c>
+      <c r="I40" t="s">
+        <v>29</v>
+      </c>
+      <c r="J40" t="s">
+        <v>203</v>
+      </c>
+      <c r="K40" t="s">
+        <v>277</v>
+      </c>
+      <c r="L40" t="s">
+        <v>296</v>
+      </c>
+      <c r="M40" t="s">
+        <v>311</v>
+      </c>
+      <c r="N40" t="s">
+        <v>320</v>
+      </c>
+      <c r="O40" t="s">
+        <v>333</v>
+      </c>
+      <c r="P40" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41">
+        <v>303</v>
+      </c>
+      <c r="C41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" t="s">
+        <v>36</v>
+      </c>
+      <c r="H41" t="s">
+        <v>99</v>
+      </c>
+      <c r="I41" t="s">
+        <v>29</v>
+      </c>
+      <c r="J41" t="s">
+        <v>204</v>
+      </c>
+      <c r="K41" t="s">
+        <v>277</v>
+      </c>
+      <c r="L41" t="s">
+        <v>296</v>
+      </c>
+      <c r="M41" t="s">
+        <v>311</v>
+      </c>
+      <c r="N41" t="s">
+        <v>320</v>
+      </c>
+      <c r="O41" t="s">
+        <v>333</v>
+      </c>
+      <c r="P41" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42">
+        <v>303</v>
+      </c>
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" t="s">
+        <v>29</v>
+      </c>
+      <c r="G42" t="s">
+        <v>32</v>
+      </c>
+      <c r="H42" t="s">
+        <v>100</v>
+      </c>
+      <c r="I42" t="s">
+        <v>29</v>
+      </c>
+      <c r="J42" t="s">
+        <v>205</v>
+      </c>
+      <c r="K42" t="s">
+        <v>277</v>
+      </c>
+      <c r="L42" t="s">
+        <v>296</v>
+      </c>
+      <c r="M42" t="s">
+        <v>311</v>
+      </c>
+      <c r="N42" t="s">
+        <v>320</v>
+      </c>
+      <c r="O42" t="s">
+        <v>333</v>
+      </c>
+      <c r="P42" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43">
+        <v>303</v>
+      </c>
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" t="s">
+        <v>29</v>
+      </c>
+      <c r="G43" t="s">
+        <v>37</v>
+      </c>
+      <c r="H43" t="s">
+        <v>101</v>
+      </c>
+      <c r="I43" t="s">
+        <v>29</v>
+      </c>
+      <c r="J43" t="s">
+        <v>206</v>
+      </c>
+      <c r="K43" t="s">
+        <v>277</v>
+      </c>
+      <c r="L43" t="s">
+        <v>296</v>
+      </c>
+      <c r="M43" t="s">
+        <v>311</v>
+      </c>
+      <c r="N43" t="s">
+        <v>320</v>
+      </c>
+      <c r="O43" t="s">
+        <v>333</v>
+      </c>
+      <c r="P43" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44">
+        <v>303</v>
+      </c>
+      <c r="C44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" t="s">
+        <v>29</v>
+      </c>
+      <c r="G44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H44" t="s">
+        <v>102</v>
+      </c>
+      <c r="I44" t="s">
+        <v>29</v>
+      </c>
+      <c r="J44" t="s">
+        <v>207</v>
+      </c>
+      <c r="K44" t="s">
+        <v>277</v>
+      </c>
+      <c r="L44" t="s">
+        <v>296</v>
+      </c>
+      <c r="M44" t="s">
+        <v>311</v>
+      </c>
+      <c r="N44" t="s">
+        <v>320</v>
+      </c>
+      <c r="O44" t="s">
+        <v>333</v>
+      </c>
+      <c r="P44" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45">
+        <v>303</v>
+      </c>
+      <c r="C45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" t="s">
+        <v>29</v>
+      </c>
+      <c r="G45" t="s">
+        <v>41</v>
+      </c>
+      <c r="H45" t="s">
+        <v>103</v>
+      </c>
+      <c r="I45" t="s">
+        <v>29</v>
+      </c>
+      <c r="J45" t="s">
+        <v>208</v>
+      </c>
+      <c r="K45" t="s">
+        <v>277</v>
+      </c>
+      <c r="L45" t="s">
+        <v>296</v>
+      </c>
+      <c r="M45" t="s">
+        <v>311</v>
+      </c>
+      <c r="N45" t="s">
+        <v>320</v>
+      </c>
+      <c r="O45" t="s">
+        <v>333</v>
+      </c>
+      <c r="P45" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46">
+        <v>303</v>
+      </c>
+      <c r="C46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" t="s">
+        <v>29</v>
+      </c>
+      <c r="G46" t="s">
+        <v>40</v>
+      </c>
+      <c r="H46" t="s">
+        <v>104</v>
+      </c>
+      <c r="I46" t="s">
+        <v>29</v>
+      </c>
+      <c r="J46" t="s">
+        <v>209</v>
+      </c>
+      <c r="K46" t="s">
+        <v>277</v>
+      </c>
+      <c r="L46" t="s">
+        <v>296</v>
+      </c>
+      <c r="M46" t="s">
+        <v>311</v>
+      </c>
+      <c r="N46" t="s">
+        <v>320</v>
+      </c>
+      <c r="O46" t="s">
+        <v>333</v>
+      </c>
+      <c r="P46" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47">
+        <v>303</v>
+      </c>
+      <c r="C47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>105</v>
+      </c>
+      <c r="I47" t="s">
+        <v>29</v>
+      </c>
+      <c r="J47" t="s">
+        <v>210</v>
+      </c>
+      <c r="K47" t="s">
+        <v>277</v>
+      </c>
+      <c r="L47" t="s">
+        <v>296</v>
+      </c>
+      <c r="M47" t="s">
+        <v>311</v>
+      </c>
+      <c r="N47" t="s">
+        <v>320</v>
+      </c>
+      <c r="O47" t="s">
+        <v>333</v>
+      </c>
+      <c r="P47" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48">
+        <v>303</v>
+      </c>
+      <c r="C48" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" t="s">
+        <v>29</v>
+      </c>
+      <c r="G48" t="s">
+        <v>42</v>
+      </c>
+      <c r="H48" t="s">
+        <v>106</v>
+      </c>
+      <c r="I48" t="s">
+        <v>29</v>
+      </c>
+      <c r="J48" t="s">
+        <v>211</v>
+      </c>
+      <c r="K48" t="s">
+        <v>277</v>
+      </c>
+      <c r="L48" t="s">
+        <v>296</v>
+      </c>
+      <c r="M48" t="s">
+        <v>311</v>
+      </c>
+      <c r="N48" t="s">
+        <v>320</v>
+      </c>
+      <c r="O48" t="s">
+        <v>333</v>
+      </c>
+      <c r="P48" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49">
+        <v>303</v>
+      </c>
+      <c r="C49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" t="s">
+        <v>23</v>
+      </c>
+      <c r="F49" t="s">
+        <v>29</v>
+      </c>
+      <c r="G49" t="s">
+        <v>43</v>
+      </c>
+      <c r="H49" t="s">
+        <v>107</v>
+      </c>
+      <c r="I49" t="s">
+        <v>29</v>
+      </c>
+      <c r="J49" t="s">
+        <v>212</v>
+      </c>
+      <c r="K49" t="s">
+        <v>277</v>
+      </c>
+      <c r="L49" t="s">
+        <v>296</v>
+      </c>
+      <c r="M49" t="s">
+        <v>311</v>
+      </c>
+      <c r="N49" t="s">
+        <v>320</v>
+      </c>
+      <c r="O49" t="s">
+        <v>333</v>
+      </c>
+      <c r="P49" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50">
+        <v>303</v>
+      </c>
+      <c r="C50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" t="s">
+        <v>23</v>
+      </c>
+      <c r="F50" t="s">
+        <v>29</v>
+      </c>
+      <c r="G50" t="s">
+        <v>44</v>
+      </c>
+      <c r="H50" t="s">
+        <v>108</v>
+      </c>
+      <c r="I50" t="s">
+        <v>29</v>
+      </c>
+      <c r="J50" t="s">
+        <v>213</v>
+      </c>
+      <c r="K50" t="s">
+        <v>277</v>
+      </c>
+      <c r="L50" t="s">
+        <v>296</v>
+      </c>
+      <c r="M50" t="s">
+        <v>311</v>
+      </c>
+      <c r="N50" t="s">
+        <v>320</v>
+      </c>
+      <c r="O50" t="s">
+        <v>333</v>
+      </c>
+      <c r="P50" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51">
+        <v>303</v>
+      </c>
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G51" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" t="s">
+        <v>109</v>
+      </c>
+      <c r="I51" t="s">
+        <v>29</v>
+      </c>
+      <c r="J51" t="s">
+        <v>214</v>
+      </c>
+      <c r="K51" t="s">
+        <v>277</v>
+      </c>
+      <c r="L51" t="s">
+        <v>296</v>
+      </c>
+      <c r="M51" t="s">
+        <v>311</v>
+      </c>
+      <c r="N51" t="s">
+        <v>320</v>
+      </c>
+      <c r="O51" t="s">
+        <v>333</v>
+      </c>
+      <c r="P51" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52">
+        <v>303</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52" t="s">
+        <v>29</v>
+      </c>
+      <c r="G52" t="s">
+        <v>33</v>
+      </c>
+      <c r="H52" t="s">
+        <v>110</v>
+      </c>
+      <c r="I52" t="s">
+        <v>29</v>
+      </c>
+      <c r="J52" t="s">
+        <v>215</v>
+      </c>
+      <c r="K52" t="s">
+        <v>277</v>
+      </c>
+      <c r="L52" t="s">
+        <v>296</v>
+      </c>
+      <c r="M52" t="s">
+        <v>311</v>
+      </c>
+      <c r="N52" t="s">
+        <v>320</v>
+      </c>
+      <c r="O52" t="s">
+        <v>333</v>
+      </c>
+      <c r="P52" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53">
+        <v>296</v>
+      </c>
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" t="s">
         <v>24</v>
       </c>
-      <c r="H10" t="s">
+      <c r="F53" t="s">
+        <v>29</v>
+      </c>
+      <c r="G53" t="s">
+        <v>31</v>
+      </c>
+      <c r="H53" t="s">
+        <v>111</v>
+      </c>
+      <c r="I53" t="s">
+        <v>30</v>
+      </c>
+      <c r="J53" t="s">
+        <v>216</v>
+      </c>
+      <c r="K53" t="s">
+        <v>278</v>
+      </c>
+      <c r="L53" t="s">
+        <v>297</v>
+      </c>
+      <c r="M53" t="s">
+        <v>312</v>
+      </c>
+      <c r="N53" t="s">
+        <v>278</v>
+      </c>
+      <c r="O53" t="s">
+        <v>334</v>
+      </c>
+      <c r="P53" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54">
+        <v>295</v>
+      </c>
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" t="s">
+        <v>24</v>
+      </c>
+      <c r="F54" t="s">
+        <v>29</v>
+      </c>
+      <c r="G54" t="s">
+        <v>42</v>
+      </c>
+      <c r="H54" t="s">
+        <v>112</v>
+      </c>
+      <c r="I54" t="s">
+        <v>30</v>
+      </c>
+      <c r="J54" t="s">
+        <v>217</v>
+      </c>
+      <c r="K54" t="s">
+        <v>279</v>
+      </c>
+      <c r="L54" t="s">
+        <v>298</v>
+      </c>
+      <c r="M54" t="s">
+        <v>312</v>
+      </c>
+      <c r="N54" t="s">
+        <v>321</v>
+      </c>
+      <c r="O54" t="s">
+        <v>334</v>
+      </c>
+      <c r="P54" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55">
+        <v>295</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" t="s">
+        <v>24</v>
+      </c>
+      <c r="F55" t="s">
+        <v>29</v>
+      </c>
+      <c r="G55" t="s">
+        <v>33</v>
+      </c>
+      <c r="H55" t="s">
+        <v>113</v>
+      </c>
+      <c r="I55" t="s">
+        <v>30</v>
+      </c>
+      <c r="J55" t="s">
+        <v>218</v>
+      </c>
+      <c r="K55" t="s">
+        <v>279</v>
+      </c>
+      <c r="L55" t="s">
+        <v>298</v>
+      </c>
+      <c r="M55" t="s">
+        <v>312</v>
+      </c>
+      <c r="N55" t="s">
+        <v>321</v>
+      </c>
+      <c r="O55" t="s">
+        <v>334</v>
+      </c>
+      <c r="P55" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56">
+        <v>295</v>
+      </c>
+      <c r="C56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" t="s">
+        <v>24</v>
+      </c>
+      <c r="F56" t="s">
+        <v>29</v>
+      </c>
+      <c r="G56" t="s">
+        <v>40</v>
+      </c>
+      <c r="H56" t="s">
+        <v>114</v>
+      </c>
+      <c r="I56" t="s">
+        <v>30</v>
+      </c>
+      <c r="J56" t="s">
+        <v>219</v>
+      </c>
+      <c r="K56" t="s">
+        <v>279</v>
+      </c>
+      <c r="L56" t="s">
+        <v>298</v>
+      </c>
+      <c r="M56" t="s">
+        <v>312</v>
+      </c>
+      <c r="N56" t="s">
+        <v>321</v>
+      </c>
+      <c r="O56" t="s">
+        <v>334</v>
+      </c>
+      <c r="P56" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57">
+        <v>295</v>
+      </c>
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" t="s">
+        <v>24</v>
+      </c>
+      <c r="F57" t="s">
+        <v>29</v>
+      </c>
+      <c r="G57" t="s">
+        <v>39</v>
+      </c>
+      <c r="H57" t="s">
+        <v>115</v>
+      </c>
+      <c r="I57" t="s">
+        <v>30</v>
+      </c>
+      <c r="J57" t="s">
+        <v>220</v>
+      </c>
+      <c r="K57" t="s">
+        <v>279</v>
+      </c>
+      <c r="L57" t="s">
+        <v>298</v>
+      </c>
+      <c r="M57" t="s">
+        <v>312</v>
+      </c>
+      <c r="N57" t="s">
+        <v>321</v>
+      </c>
+      <c r="O57" t="s">
+        <v>334</v>
+      </c>
+      <c r="P57" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58">
+        <v>295</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" t="s">
+        <v>24</v>
+      </c>
+      <c r="F58" t="s">
+        <v>29</v>
+      </c>
+      <c r="G58" t="s">
+        <v>38</v>
+      </c>
+      <c r="H58" t="s">
+        <v>116</v>
+      </c>
+      <c r="I58" t="s">
+        <v>30</v>
+      </c>
+      <c r="J58" t="s">
+        <v>221</v>
+      </c>
+      <c r="K58" t="s">
+        <v>279</v>
+      </c>
+      <c r="L58" t="s">
+        <v>298</v>
+      </c>
+      <c r="M58" t="s">
+        <v>312</v>
+      </c>
+      <c r="N58" t="s">
+        <v>321</v>
+      </c>
+      <c r="O58" t="s">
+        <v>334</v>
+      </c>
+      <c r="P58" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59">
+        <v>295</v>
+      </c>
+      <c r="C59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" t="s">
+        <v>24</v>
+      </c>
+      <c r="F59" t="s">
+        <v>29</v>
+      </c>
+      <c r="G59" t="s">
+        <v>37</v>
+      </c>
+      <c r="H59" t="s">
+        <v>117</v>
+      </c>
+      <c r="I59" t="s">
+        <v>30</v>
+      </c>
+      <c r="J59" t="s">
+        <v>222</v>
+      </c>
+      <c r="K59" t="s">
+        <v>279</v>
+      </c>
+      <c r="L59" t="s">
+        <v>298</v>
+      </c>
+      <c r="M59" t="s">
+        <v>312</v>
+      </c>
+      <c r="N59" t="s">
+        <v>321</v>
+      </c>
+      <c r="O59" t="s">
+        <v>334</v>
+      </c>
+      <c r="P59" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60">
+        <v>295</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" t="s">
+        <v>24</v>
+      </c>
+      <c r="F60" t="s">
+        <v>29</v>
+      </c>
+      <c r="G60" t="s">
+        <v>32</v>
+      </c>
+      <c r="H60" t="s">
+        <v>118</v>
+      </c>
+      <c r="I60" t="s">
+        <v>30</v>
+      </c>
+      <c r="J60" t="s">
+        <v>223</v>
+      </c>
+      <c r="K60" t="s">
+        <v>279</v>
+      </c>
+      <c r="L60" t="s">
+        <v>298</v>
+      </c>
+      <c r="M60" t="s">
+        <v>312</v>
+      </c>
+      <c r="N60" t="s">
+        <v>321</v>
+      </c>
+      <c r="O60" t="s">
+        <v>334</v>
+      </c>
+      <c r="P60" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61">
+        <v>295</v>
+      </c>
+      <c r="C61" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" t="s">
+        <v>24</v>
+      </c>
+      <c r="F61" t="s">
+        <v>29</v>
+      </c>
+      <c r="G61" t="s">
+        <v>36</v>
+      </c>
+      <c r="H61" t="s">
+        <v>119</v>
+      </c>
+      <c r="I61" t="s">
+        <v>30</v>
+      </c>
+      <c r="J61" t="s">
+        <v>224</v>
+      </c>
+      <c r="K61" t="s">
+        <v>279</v>
+      </c>
+      <c r="L61" t="s">
+        <v>298</v>
+      </c>
+      <c r="M61" t="s">
+        <v>312</v>
+      </c>
+      <c r="N61" t="s">
+        <v>321</v>
+      </c>
+      <c r="O61" t="s">
+        <v>334</v>
+      </c>
+      <c r="P61" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62">
+        <v>295</v>
+      </c>
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" t="s">
+        <v>24</v>
+      </c>
+      <c r="F62" t="s">
+        <v>29</v>
+      </c>
+      <c r="G62" t="s">
         <v>35</v>
       </c>
-      <c r="I10" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="H62" t="s">
+        <v>120</v>
+      </c>
+      <c r="I62" t="s">
+        <v>30</v>
+      </c>
+      <c r="J62" t="s">
+        <v>225</v>
+      </c>
+      <c r="K62" t="s">
+        <v>279</v>
+      </c>
+      <c r="L62" t="s">
+        <v>298</v>
+      </c>
+      <c r="M62" t="s">
+        <v>312</v>
+      </c>
+      <c r="N62" t="s">
+        <v>321</v>
+      </c>
+      <c r="O62" t="s">
+        <v>334</v>
+      </c>
+      <c r="P62" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63">
+        <v>295</v>
+      </c>
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" t="s">
+        <v>24</v>
+      </c>
+      <c r="F63" t="s">
+        <v>29</v>
+      </c>
+      <c r="G63" t="s">
+        <v>34</v>
+      </c>
+      <c r="H63" t="s">
+        <v>121</v>
+      </c>
+      <c r="I63" t="s">
+        <v>30</v>
+      </c>
+      <c r="J63" t="s">
+        <v>226</v>
+      </c>
+      <c r="K63" t="s">
+        <v>279</v>
+      </c>
+      <c r="L63" t="s">
+        <v>298</v>
+      </c>
+      <c r="M63" t="s">
+        <v>312</v>
+      </c>
+      <c r="N63" t="s">
+        <v>321</v>
+      </c>
+      <c r="O63" t="s">
+        <v>334</v>
+      </c>
+      <c r="P63" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64">
+        <v>295</v>
+      </c>
+      <c r="C64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" t="s">
+        <v>24</v>
+      </c>
+      <c r="F64" t="s">
+        <v>29</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>122</v>
+      </c>
+      <c r="I64" t="s">
+        <v>30</v>
+      </c>
+      <c r="J64" t="s">
+        <v>227</v>
+      </c>
+      <c r="K64" t="s">
+        <v>279</v>
+      </c>
+      <c r="L64" t="s">
+        <v>298</v>
+      </c>
+      <c r="M64" t="s">
+        <v>312</v>
+      </c>
+      <c r="N64" t="s">
+        <v>321</v>
+      </c>
+      <c r="O64" t="s">
+        <v>334</v>
+      </c>
+      <c r="P64" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65">
+        <v>136</v>
+      </c>
+      <c r="C65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" t="s">
+        <v>25</v>
+      </c>
+      <c r="F65" t="s">
+        <v>29</v>
+      </c>
+      <c r="G65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H65" t="s">
+        <v>123</v>
+      </c>
+      <c r="I65" t="s">
+        <v>30</v>
+      </c>
+      <c r="J65" t="s">
+        <v>228</v>
+      </c>
+      <c r="K65" t="s">
+        <v>280</v>
+      </c>
+      <c r="L65" t="s">
+        <v>299</v>
+      </c>
+      <c r="M65" t="s">
+        <v>313</v>
+      </c>
+      <c r="N65" t="s">
+        <v>322</v>
+      </c>
+      <c r="O65" t="s">
+        <v>335</v>
+      </c>
+      <c r="P65" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66">
+        <v>136</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" t="s">
+        <v>25</v>
+      </c>
+      <c r="F66" t="s">
+        <v>29</v>
+      </c>
+      <c r="G66" t="s">
+        <v>33</v>
+      </c>
+      <c r="H66" t="s">
+        <v>124</v>
+      </c>
+      <c r="I66" t="s">
+        <v>30</v>
+      </c>
+      <c r="J66" t="s">
+        <v>229</v>
+      </c>
+      <c r="K66" t="s">
+        <v>280</v>
+      </c>
+      <c r="L66" t="s">
+        <v>299</v>
+      </c>
+      <c r="M66" t="s">
+        <v>313</v>
+      </c>
+      <c r="N66" t="s">
+        <v>322</v>
+      </c>
+      <c r="O66" t="s">
+        <v>335</v>
+      </c>
+      <c r="P66" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67">
+        <v>133</v>
+      </c>
+      <c r="C67" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" t="s">
+        <v>26</v>
+      </c>
+      <c r="F67" t="s">
+        <v>30</v>
+      </c>
+      <c r="G67" t="s">
+        <v>56</v>
+      </c>
+      <c r="H67" t="s">
+        <v>125</v>
+      </c>
+      <c r="I67" t="s">
+        <v>30</v>
+      </c>
+      <c r="J67" t="s">
+        <v>230</v>
+      </c>
+      <c r="K67" t="s">
+        <v>281</v>
+      </c>
+      <c r="L67" t="s">
+        <v>300</v>
+      </c>
+      <c r="M67" t="s">
+        <v>314</v>
+      </c>
+      <c r="N67" t="s">
+        <v>323</v>
+      </c>
+      <c r="O67" t="s">
+        <v>336</v>
+      </c>
+      <c r="P67" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68">
+        <v>133</v>
+      </c>
+      <c r="C68" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" t="s">
+        <v>26</v>
+      </c>
+      <c r="F68" t="s">
+        <v>30</v>
+      </c>
+      <c r="G68" t="s">
+        <v>57</v>
+      </c>
+      <c r="H68" t="s">
+        <v>126</v>
+      </c>
+      <c r="I68" t="s">
+        <v>30</v>
+      </c>
+      <c r="J68" t="s">
+        <v>231</v>
+      </c>
+      <c r="K68" t="s">
+        <v>281</v>
+      </c>
+      <c r="L68" t="s">
+        <v>300</v>
+      </c>
+      <c r="M68" t="s">
+        <v>314</v>
+      </c>
+      <c r="N68" t="s">
+        <v>323</v>
+      </c>
+      <c r="O68" t="s">
+        <v>336</v>
+      </c>
+      <c r="P68" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69">
+        <v>133</v>
+      </c>
+      <c r="C69" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" t="s">
+        <v>26</v>
+      </c>
+      <c r="F69" t="s">
+        <v>30</v>
+      </c>
+      <c r="G69" t="s">
+        <v>58</v>
+      </c>
+      <c r="H69" t="s">
+        <v>127</v>
+      </c>
+      <c r="I69" t="s">
+        <v>30</v>
+      </c>
+      <c r="J69" t="s">
+        <v>232</v>
+      </c>
+      <c r="K69" t="s">
+        <v>281</v>
+      </c>
+      <c r="L69" t="s">
+        <v>300</v>
+      </c>
+      <c r="M69" t="s">
+        <v>314</v>
+      </c>
+      <c r="N69" t="s">
+        <v>323</v>
+      </c>
+      <c r="O69" t="s">
+        <v>336</v>
+      </c>
+      <c r="P69" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70">
+        <v>101</v>
+      </c>
+      <c r="C70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" t="s">
+        <v>26</v>
+      </c>
+      <c r="F70" t="s">
+        <v>30</v>
+      </c>
+      <c r="G70" t="s">
         <v>47</v>
       </c>
-      <c r="K10" t="s">
+      <c r="H70" t="s">
+        <v>128</v>
+      </c>
+      <c r="I70" t="s">
+        <v>30</v>
+      </c>
+      <c r="J70" t="s">
+        <v>233</v>
+      </c>
+      <c r="K70" t="s">
+        <v>282</v>
+      </c>
+      <c r="L70" t="s">
+        <v>301</v>
+      </c>
+      <c r="M70" t="s">
+        <v>315</v>
+      </c>
+      <c r="N70" t="s">
+        <v>324</v>
+      </c>
+      <c r="O70" t="s">
+        <v>336</v>
+      </c>
+      <c r="P70" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" t="s">
+        <v>16</v>
+      </c>
+      <c r="B71">
+        <v>101</v>
+      </c>
+      <c r="C71" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" t="s">
+        <v>26</v>
+      </c>
+      <c r="F71" t="s">
+        <v>30</v>
+      </c>
+      <c r="G71" t="s">
+        <v>49</v>
+      </c>
+      <c r="H71" t="s">
+        <v>129</v>
+      </c>
+      <c r="I71" t="s">
+        <v>30</v>
+      </c>
+      <c r="J71" t="s">
+        <v>234</v>
+      </c>
+      <c r="K71" t="s">
+        <v>282</v>
+      </c>
+      <c r="L71" t="s">
+        <v>301</v>
+      </c>
+      <c r="M71" t="s">
+        <v>315</v>
+      </c>
+      <c r="N71" t="s">
+        <v>324</v>
+      </c>
+      <c r="O71" t="s">
+        <v>336</v>
+      </c>
+      <c r="P71" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" t="s">
+        <v>16</v>
+      </c>
+      <c r="B72">
+        <v>101</v>
+      </c>
+      <c r="C72" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" t="s">
+        <v>26</v>
+      </c>
+      <c r="F72" t="s">
+        <v>30</v>
+      </c>
+      <c r="G72" t="s">
+        <v>51</v>
+      </c>
+      <c r="H72" t="s">
+        <v>130</v>
+      </c>
+      <c r="I72" t="s">
+        <v>30</v>
+      </c>
+      <c r="J72" t="s">
+        <v>235</v>
+      </c>
+      <c r="K72" t="s">
+        <v>282</v>
+      </c>
+      <c r="L72" t="s">
+        <v>301</v>
+      </c>
+      <c r="M72" t="s">
+        <v>315</v>
+      </c>
+      <c r="N72" t="s">
+        <v>324</v>
+      </c>
+      <c r="O72" t="s">
+        <v>336</v>
+      </c>
+      <c r="P72" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73">
+        <v>101</v>
+      </c>
+      <c r="C73" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" t="s">
+        <v>26</v>
+      </c>
+      <c r="F73" t="s">
+        <v>30</v>
+      </c>
+      <c r="G73" t="s">
         <v>50</v>
       </c>
-      <c r="L10" t="s">
+      <c r="H73" t="s">
+        <v>131</v>
+      </c>
+      <c r="I73" t="s">
+        <v>30</v>
+      </c>
+      <c r="J73" t="s">
+        <v>236</v>
+      </c>
+      <c r="K73" t="s">
+        <v>282</v>
+      </c>
+      <c r="L73" t="s">
+        <v>301</v>
+      </c>
+      <c r="M73" t="s">
+        <v>315</v>
+      </c>
+      <c r="N73" t="s">
+        <v>324</v>
+      </c>
+      <c r="O73" t="s">
+        <v>336</v>
+      </c>
+      <c r="P73" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" t="s">
+        <v>16</v>
+      </c>
+      <c r="B74">
+        <v>101</v>
+      </c>
+      <c r="C74" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" t="s">
+        <v>26</v>
+      </c>
+      <c r="F74" t="s">
+        <v>30</v>
+      </c>
+      <c r="G74" t="s">
+        <v>52</v>
+      </c>
+      <c r="H74" t="s">
+        <v>132</v>
+      </c>
+      <c r="I74" t="s">
+        <v>30</v>
+      </c>
+      <c r="J74" t="s">
+        <v>237</v>
+      </c>
+      <c r="K74" t="s">
+        <v>282</v>
+      </c>
+      <c r="L74" t="s">
+        <v>301</v>
+      </c>
+      <c r="M74" t="s">
+        <v>315</v>
+      </c>
+      <c r="N74" t="s">
+        <v>324</v>
+      </c>
+      <c r="O74" t="s">
+        <v>336</v>
+      </c>
+      <c r="P74" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" t="s">
+        <v>16</v>
+      </c>
+      <c r="B75">
+        <v>85</v>
+      </c>
+      <c r="C75" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75" t="s">
+        <v>26</v>
+      </c>
+      <c r="F75" t="s">
+        <v>30</v>
+      </c>
+      <c r="G75" t="s">
+        <v>40</v>
+      </c>
+      <c r="H75" t="s">
+        <v>133</v>
+      </c>
+      <c r="I75" t="s">
+        <v>30</v>
+      </c>
+      <c r="J75" t="s">
+        <v>238</v>
+      </c>
+      <c r="K75" t="s">
+        <v>283</v>
+      </c>
+      <c r="L75" t="s">
+        <v>302</v>
+      </c>
+      <c r="M75" t="s">
+        <v>284</v>
+      </c>
+      <c r="N75" t="s">
+        <v>325</v>
+      </c>
+      <c r="O75" t="s">
+        <v>336</v>
+      </c>
+      <c r="P75" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76" t="s">
+        <v>16</v>
+      </c>
+      <c r="B76">
+        <v>85</v>
+      </c>
+      <c r="C76" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" t="s">
+        <v>27</v>
+      </c>
+      <c r="F76" t="s">
+        <v>30</v>
+      </c>
+      <c r="G76" t="s">
+        <v>33</v>
+      </c>
+      <c r="H76" t="s">
+        <v>134</v>
+      </c>
+      <c r="I76" t="s">
+        <v>30</v>
+      </c>
+      <c r="J76" t="s">
+        <v>239</v>
+      </c>
+      <c r="K76" t="s">
+        <v>283</v>
+      </c>
+      <c r="L76" t="s">
+        <v>302</v>
+      </c>
+      <c r="M76" t="s">
+        <v>284</v>
+      </c>
+      <c r="N76" t="s">
+        <v>326</v>
+      </c>
+      <c r="O76" t="s">
+        <v>337</v>
+      </c>
+      <c r="P76" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77">
+        <v>85</v>
+      </c>
+      <c r="C77" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77" t="s">
+        <v>26</v>
+      </c>
+      <c r="F77" t="s">
+        <v>30</v>
+      </c>
+      <c r="G77" t="s">
         <v>54</v>
       </c>
-      <c r="M10" t="s">
-        <v>57</v>
-      </c>
-      <c r="N10" t="s">
-        <v>57</v>
-      </c>
-      <c r="O10" t="s">
-        <v>61</v>
-      </c>
-      <c r="P10" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>63</v>
+      <c r="H77" t="s">
+        <v>135</v>
+      </c>
+      <c r="I77" t="s">
+        <v>30</v>
+      </c>
+      <c r="J77" t="s">
+        <v>240</v>
+      </c>
+      <c r="K77" t="s">
+        <v>283</v>
+      </c>
+      <c r="L77" t="s">
+        <v>302</v>
+      </c>
+      <c r="M77" t="s">
+        <v>284</v>
+      </c>
+      <c r="N77" t="s">
+        <v>315</v>
+      </c>
+      <c r="O77" t="s">
+        <v>336</v>
+      </c>
+      <c r="P77" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78">
+        <v>84</v>
+      </c>
+      <c r="C78" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" t="s">
+        <v>26</v>
+      </c>
+      <c r="F78" t="s">
+        <v>30</v>
+      </c>
+      <c r="G78" t="s">
+        <v>38</v>
+      </c>
+      <c r="H78" t="s">
+        <v>136</v>
+      </c>
+      <c r="I78" t="s">
+        <v>30</v>
+      </c>
+      <c r="J78" t="s">
+        <v>241</v>
+      </c>
+      <c r="K78" t="s">
+        <v>284</v>
+      </c>
+      <c r="L78" t="s">
+        <v>303</v>
+      </c>
+      <c r="M78" t="s">
+        <v>316</v>
+      </c>
+      <c r="N78" t="s">
+        <v>325</v>
+      </c>
+      <c r="O78" t="s">
+        <v>336</v>
+      </c>
+      <c r="P78" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79">
+        <v>84</v>
+      </c>
+      <c r="C79" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" t="s">
+        <v>26</v>
+      </c>
+      <c r="F79" t="s">
+        <v>30</v>
+      </c>
+      <c r="G79" t="s">
+        <v>39</v>
+      </c>
+      <c r="H79" t="s">
+        <v>137</v>
+      </c>
+      <c r="I79" t="s">
+        <v>30</v>
+      </c>
+      <c r="J79" t="s">
+        <v>242</v>
+      </c>
+      <c r="K79" t="s">
+        <v>284</v>
+      </c>
+      <c r="L79" t="s">
+        <v>303</v>
+      </c>
+      <c r="M79" t="s">
+        <v>316</v>
+      </c>
+      <c r="N79" t="s">
+        <v>325</v>
+      </c>
+      <c r="O79" t="s">
+        <v>336</v>
+      </c>
+      <c r="P79" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="A80" t="s">
+        <v>16</v>
+      </c>
+      <c r="B80">
+        <v>84</v>
+      </c>
+      <c r="C80" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" t="s">
+        <v>26</v>
+      </c>
+      <c r="F80" t="s">
+        <v>30</v>
+      </c>
+      <c r="G80" t="s">
+        <v>48</v>
+      </c>
+      <c r="H80" t="s">
+        <v>138</v>
+      </c>
+      <c r="I80" t="s">
+        <v>30</v>
+      </c>
+      <c r="J80" t="s">
+        <v>243</v>
+      </c>
+      <c r="K80" t="s">
+        <v>284</v>
+      </c>
+      <c r="L80" t="s">
+        <v>303</v>
+      </c>
+      <c r="M80" t="s">
+        <v>316</v>
+      </c>
+      <c r="N80" t="s">
+        <v>315</v>
+      </c>
+      <c r="O80" t="s">
+        <v>336</v>
+      </c>
+      <c r="P80" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
+      <c r="A81" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81">
+        <v>84</v>
+      </c>
+      <c r="C81" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" t="s">
+        <v>26</v>
+      </c>
+      <c r="F81" t="s">
+        <v>30</v>
+      </c>
+      <c r="G81" t="s">
+        <v>37</v>
+      </c>
+      <c r="H81" t="s">
+        <v>139</v>
+      </c>
+      <c r="I81" t="s">
+        <v>30</v>
+      </c>
+      <c r="J81" t="s">
+        <v>244</v>
+      </c>
+      <c r="K81" t="s">
+        <v>284</v>
+      </c>
+      <c r="L81" t="s">
+        <v>303</v>
+      </c>
+      <c r="M81" t="s">
+        <v>316</v>
+      </c>
+      <c r="N81" t="s">
+        <v>325</v>
+      </c>
+      <c r="O81" t="s">
+        <v>336</v>
+      </c>
+      <c r="P81" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
+      <c r="A82" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82">
+        <v>84</v>
+      </c>
+      <c r="C82" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" t="s">
+        <v>26</v>
+      </c>
+      <c r="F82" t="s">
+        <v>30</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>140</v>
+      </c>
+      <c r="I82" t="s">
+        <v>30</v>
+      </c>
+      <c r="J82" t="s">
+        <v>245</v>
+      </c>
+      <c r="K82" t="s">
+        <v>284</v>
+      </c>
+      <c r="L82" t="s">
+        <v>303</v>
+      </c>
+      <c r="M82" t="s">
+        <v>316</v>
+      </c>
+      <c r="N82" t="s">
+        <v>325</v>
+      </c>
+      <c r="O82" t="s">
+        <v>336</v>
+      </c>
+      <c r="P82" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
+      <c r="A83" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83">
+        <v>84</v>
+      </c>
+      <c r="C83" t="s">
+        <v>17</v>
+      </c>
+      <c r="D83" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83" t="s">
+        <v>26</v>
+      </c>
+      <c r="F83" t="s">
+        <v>30</v>
+      </c>
+      <c r="G83" t="s">
+        <v>59</v>
+      </c>
+      <c r="H83" t="s">
+        <v>141</v>
+      </c>
+      <c r="I83" t="s">
+        <v>30</v>
+      </c>
+      <c r="J83" t="s">
+        <v>246</v>
+      </c>
+      <c r="K83" t="s">
+        <v>284</v>
+      </c>
+      <c r="L83" t="s">
+        <v>303</v>
+      </c>
+      <c r="M83" t="s">
+        <v>316</v>
+      </c>
+      <c r="N83" t="s">
+        <v>327</v>
+      </c>
+      <c r="O83" t="s">
+        <v>336</v>
+      </c>
+      <c r="P83" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
+      <c r="A84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84">
+        <v>84</v>
+      </c>
+      <c r="C84" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84" t="s">
+        <v>26</v>
+      </c>
+      <c r="F84" t="s">
+        <v>30</v>
+      </c>
+      <c r="G84" t="s">
+        <v>55</v>
+      </c>
+      <c r="H84" t="s">
+        <v>142</v>
+      </c>
+      <c r="I84" t="s">
+        <v>30</v>
+      </c>
+      <c r="J84" t="s">
+        <v>247</v>
+      </c>
+      <c r="K84" t="s">
+        <v>284</v>
+      </c>
+      <c r="L84" t="s">
+        <v>303</v>
+      </c>
+      <c r="M84" t="s">
+        <v>316</v>
+      </c>
+      <c r="N84" t="s">
+        <v>315</v>
+      </c>
+      <c r="O84" t="s">
+        <v>336</v>
+      </c>
+      <c r="P84" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17">
+      <c r="A85" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85">
+        <v>84</v>
+      </c>
+      <c r="C85" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" t="s">
+        <v>26</v>
+      </c>
+      <c r="F85" t="s">
+        <v>30</v>
+      </c>
+      <c r="G85" t="s">
+        <v>32</v>
+      </c>
+      <c r="H85" t="s">
+        <v>143</v>
+      </c>
+      <c r="I85" t="s">
+        <v>30</v>
+      </c>
+      <c r="J85" t="s">
+        <v>248</v>
+      </c>
+      <c r="K85" t="s">
+        <v>284</v>
+      </c>
+      <c r="L85" t="s">
+        <v>303</v>
+      </c>
+      <c r="M85" t="s">
+        <v>316</v>
+      </c>
+      <c r="N85" t="s">
+        <v>325</v>
+      </c>
+      <c r="O85" t="s">
+        <v>336</v>
+      </c>
+      <c r="P85" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17">
+      <c r="A86" t="s">
+        <v>16</v>
+      </c>
+      <c r="B86">
+        <v>84</v>
+      </c>
+      <c r="C86" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" t="s">
+        <v>27</v>
+      </c>
+      <c r="F86" t="s">
+        <v>30</v>
+      </c>
+      <c r="G86" t="s">
+        <v>37</v>
+      </c>
+      <c r="H86" t="s">
+        <v>144</v>
+      </c>
+      <c r="I86" t="s">
+        <v>30</v>
+      </c>
+      <c r="J86" t="s">
+        <v>249</v>
+      </c>
+      <c r="K86" t="s">
+        <v>284</v>
+      </c>
+      <c r="L86" t="s">
+        <v>303</v>
+      </c>
+      <c r="M86" t="s">
+        <v>316</v>
+      </c>
+      <c r="N86" t="s">
+        <v>326</v>
+      </c>
+      <c r="O86" t="s">
+        <v>337</v>
+      </c>
+      <c r="P86" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17">
+      <c r="A87" t="s">
+        <v>16</v>
+      </c>
+      <c r="B87">
+        <v>84</v>
+      </c>
+      <c r="C87" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87" t="s">
+        <v>18</v>
+      </c>
+      <c r="E87" t="s">
+        <v>27</v>
+      </c>
+      <c r="F87" t="s">
+        <v>30</v>
+      </c>
+      <c r="G87" t="s">
+        <v>35</v>
+      </c>
+      <c r="H87" t="s">
+        <v>145</v>
+      </c>
+      <c r="I87" t="s">
+        <v>30</v>
+      </c>
+      <c r="J87" t="s">
+        <v>250</v>
+      </c>
+      <c r="K87" t="s">
+        <v>284</v>
+      </c>
+      <c r="L87" t="s">
+        <v>303</v>
+      </c>
+      <c r="M87" t="s">
+        <v>316</v>
+      </c>
+      <c r="N87" t="s">
+        <v>326</v>
+      </c>
+      <c r="O87" t="s">
+        <v>337</v>
+      </c>
+      <c r="P87" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17">
+      <c r="A88" t="s">
+        <v>16</v>
+      </c>
+      <c r="B88">
+        <v>84</v>
+      </c>
+      <c r="C88" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" t="s">
+        <v>18</v>
+      </c>
+      <c r="E88" t="s">
+        <v>26</v>
+      </c>
+      <c r="F88" t="s">
+        <v>30</v>
+      </c>
+      <c r="G88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88" t="s">
+        <v>146</v>
+      </c>
+      <c r="I88" t="s">
+        <v>30</v>
+      </c>
+      <c r="J88" t="s">
+        <v>251</v>
+      </c>
+      <c r="K88" t="s">
+        <v>284</v>
+      </c>
+      <c r="L88" t="s">
+        <v>303</v>
+      </c>
+      <c r="M88" t="s">
+        <v>316</v>
+      </c>
+      <c r="N88" t="s">
+        <v>325</v>
+      </c>
+      <c r="O88" t="s">
+        <v>336</v>
+      </c>
+      <c r="P88" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17">
+      <c r="A89" t="s">
+        <v>16</v>
+      </c>
+      <c r="B89">
+        <v>79</v>
+      </c>
+      <c r="C89" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" t="s">
+        <v>26</v>
+      </c>
+      <c r="F89" t="s">
+        <v>30</v>
+      </c>
+      <c r="G89" t="s">
+        <v>53</v>
+      </c>
+      <c r="H89" t="s">
+        <v>147</v>
+      </c>
+      <c r="I89" t="s">
+        <v>30</v>
+      </c>
+      <c r="J89" t="s">
+        <v>252</v>
+      </c>
+      <c r="K89" t="s">
+        <v>285</v>
+      </c>
+      <c r="L89" t="s">
+        <v>304</v>
+      </c>
+      <c r="M89" t="s">
+        <v>286</v>
+      </c>
+      <c r="N89" t="s">
+        <v>315</v>
+      </c>
+      <c r="O89" t="s">
+        <v>336</v>
+      </c>
+      <c r="P89" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17">
+      <c r="A90" t="s">
+        <v>16</v>
+      </c>
+      <c r="B90">
+        <v>79</v>
+      </c>
+      <c r="C90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" t="s">
+        <v>27</v>
+      </c>
+      <c r="F90" t="s">
+        <v>30</v>
+      </c>
+      <c r="G90" t="s">
+        <v>40</v>
+      </c>
+      <c r="H90" t="s">
+        <v>148</v>
+      </c>
+      <c r="I90" t="s">
+        <v>30</v>
+      </c>
+      <c r="J90" t="s">
+        <v>253</v>
+      </c>
+      <c r="K90" t="s">
+        <v>285</v>
+      </c>
+      <c r="L90" t="s">
+        <v>304</v>
+      </c>
+      <c r="M90" t="s">
+        <v>286</v>
+      </c>
+      <c r="N90" t="s">
+        <v>324</v>
+      </c>
+      <c r="O90" t="s">
+        <v>337</v>
+      </c>
+      <c r="P90" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17">
+      <c r="A91" t="s">
+        <v>16</v>
+      </c>
+      <c r="B91">
+        <v>79</v>
+      </c>
+      <c r="C91" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91" t="s">
+        <v>18</v>
+      </c>
+      <c r="E91" t="s">
+        <v>26</v>
+      </c>
+      <c r="F91" t="s">
+        <v>30</v>
+      </c>
+      <c r="G91" t="s">
+        <v>42</v>
+      </c>
+      <c r="H91" t="s">
+        <v>149</v>
+      </c>
+      <c r="I91" t="s">
+        <v>30</v>
+      </c>
+      <c r="J91" t="s">
+        <v>254</v>
+      </c>
+      <c r="K91" t="s">
+        <v>285</v>
+      </c>
+      <c r="L91" t="s">
+        <v>304</v>
+      </c>
+      <c r="M91" t="s">
+        <v>286</v>
+      </c>
+      <c r="N91" t="s">
+        <v>325</v>
+      </c>
+      <c r="O91" t="s">
+        <v>336</v>
+      </c>
+      <c r="P91" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17">
+      <c r="A92" t="s">
+        <v>16</v>
+      </c>
+      <c r="B92">
+        <v>79</v>
+      </c>
+      <c r="C92" t="s">
+        <v>17</v>
+      </c>
+      <c r="D92" t="s">
+        <v>18</v>
+      </c>
+      <c r="E92" t="s">
+        <v>26</v>
+      </c>
+      <c r="F92" t="s">
+        <v>30</v>
+      </c>
+      <c r="G92" t="s">
+        <v>43</v>
+      </c>
+      <c r="H92" t="s">
+        <v>150</v>
+      </c>
+      <c r="I92" t="s">
+        <v>30</v>
+      </c>
+      <c r="J92" t="s">
+        <v>255</v>
+      </c>
+      <c r="K92" t="s">
+        <v>285</v>
+      </c>
+      <c r="L92" t="s">
+        <v>304</v>
+      </c>
+      <c r="M92" t="s">
+        <v>286</v>
+      </c>
+      <c r="N92" t="s">
+        <v>325</v>
+      </c>
+      <c r="O92" t="s">
+        <v>336</v>
+      </c>
+      <c r="P92" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17">
+      <c r="A93" t="s">
+        <v>16</v>
+      </c>
+      <c r="B93">
+        <v>79</v>
+      </c>
+      <c r="C93" t="s">
+        <v>17</v>
+      </c>
+      <c r="D93" t="s">
+        <v>18</v>
+      </c>
+      <c r="E93" t="s">
+        <v>26</v>
+      </c>
+      <c r="F93" t="s">
+        <v>30</v>
+      </c>
+      <c r="G93" t="s">
+        <v>44</v>
+      </c>
+      <c r="H93" t="s">
+        <v>151</v>
+      </c>
+      <c r="I93" t="s">
+        <v>30</v>
+      </c>
+      <c r="J93" t="s">
+        <v>256</v>
+      </c>
+      <c r="K93" t="s">
+        <v>285</v>
+      </c>
+      <c r="L93" t="s">
+        <v>304</v>
+      </c>
+      <c r="M93" t="s">
+        <v>286</v>
+      </c>
+      <c r="N93" t="s">
+        <v>325</v>
+      </c>
+      <c r="O93" t="s">
+        <v>336</v>
+      </c>
+      <c r="P93" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17">
+      <c r="A94" t="s">
+        <v>16</v>
+      </c>
+      <c r="B94">
+        <v>79</v>
+      </c>
+      <c r="C94" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94" t="s">
+        <v>18</v>
+      </c>
+      <c r="E94" t="s">
+        <v>26</v>
+      </c>
+      <c r="F94" t="s">
+        <v>30</v>
+      </c>
+      <c r="G94" t="s">
+        <v>41</v>
+      </c>
+      <c r="H94" t="s">
+        <v>152</v>
+      </c>
+      <c r="I94" t="s">
+        <v>30</v>
+      </c>
+      <c r="J94" t="s">
+        <v>257</v>
+      </c>
+      <c r="K94" t="s">
+        <v>285</v>
+      </c>
+      <c r="L94" t="s">
+        <v>304</v>
+      </c>
+      <c r="M94" t="s">
+        <v>286</v>
+      </c>
+      <c r="N94" t="s">
+        <v>325</v>
+      </c>
+      <c r="O94" t="s">
+        <v>336</v>
+      </c>
+      <c r="P94" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17">
+      <c r="A95" t="s">
+        <v>16</v>
+      </c>
+      <c r="B95">
+        <v>78</v>
+      </c>
+      <c r="C95" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95" t="s">
+        <v>18</v>
+      </c>
+      <c r="E95" t="s">
+        <v>27</v>
+      </c>
+      <c r="F95" t="s">
+        <v>30</v>
+      </c>
+      <c r="G95" t="s">
+        <v>39</v>
+      </c>
+      <c r="H95" t="s">
+        <v>153</v>
+      </c>
+      <c r="I95" t="s">
+        <v>30</v>
+      </c>
+      <c r="J95" t="s">
+        <v>258</v>
+      </c>
+      <c r="K95" t="s">
+        <v>286</v>
+      </c>
+      <c r="L95" t="s">
+        <v>305</v>
+      </c>
+      <c r="M95" t="s">
+        <v>317</v>
+      </c>
+      <c r="N95" t="s">
+        <v>324</v>
+      </c>
+      <c r="O95" t="s">
+        <v>337</v>
+      </c>
+      <c r="P95" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17">
+      <c r="A96" t="s">
+        <v>16</v>
+      </c>
+      <c r="B96">
+        <v>78</v>
+      </c>
+      <c r="C96" t="s">
+        <v>17</v>
+      </c>
+      <c r="D96" t="s">
+        <v>18</v>
+      </c>
+      <c r="E96" t="s">
+        <v>27</v>
+      </c>
+      <c r="F96" t="s">
+        <v>30</v>
+      </c>
+      <c r="G96" t="s">
+        <v>38</v>
+      </c>
+      <c r="H96" t="s">
+        <v>154</v>
+      </c>
+      <c r="I96" t="s">
+        <v>30</v>
+      </c>
+      <c r="J96" t="s">
+        <v>259</v>
+      </c>
+      <c r="K96" t="s">
+        <v>286</v>
+      </c>
+      <c r="L96" t="s">
+        <v>305</v>
+      </c>
+      <c r="M96" t="s">
+        <v>317</v>
+      </c>
+      <c r="N96" t="s">
+        <v>326</v>
+      </c>
+      <c r="O96" t="s">
+        <v>337</v>
+      </c>
+      <c r="P96" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17">
+      <c r="A97" t="s">
+        <v>16</v>
+      </c>
+      <c r="B97">
+        <v>78</v>
+      </c>
+      <c r="C97" t="s">
+        <v>17</v>
+      </c>
+      <c r="D97" t="s">
+        <v>18</v>
+      </c>
+      <c r="E97" t="s">
+        <v>27</v>
+      </c>
+      <c r="F97" t="s">
+        <v>30</v>
+      </c>
+      <c r="G97" t="s">
+        <v>32</v>
+      </c>
+      <c r="H97" t="s">
+        <v>155</v>
+      </c>
+      <c r="I97" t="s">
+        <v>30</v>
+      </c>
+      <c r="J97" t="s">
+        <v>260</v>
+      </c>
+      <c r="K97" t="s">
+        <v>286</v>
+      </c>
+      <c r="L97" t="s">
+        <v>305</v>
+      </c>
+      <c r="M97" t="s">
+        <v>317</v>
+      </c>
+      <c r="N97" t="s">
+        <v>326</v>
+      </c>
+      <c r="O97" t="s">
+        <v>337</v>
+      </c>
+      <c r="P97" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17">
+      <c r="A98" t="s">
+        <v>16</v>
+      </c>
+      <c r="B98">
+        <v>78</v>
+      </c>
+      <c r="C98" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98" t="s">
+        <v>18</v>
+      </c>
+      <c r="E98" t="s">
+        <v>27</v>
+      </c>
+      <c r="F98" t="s">
+        <v>30</v>
+      </c>
+      <c r="G98" t="s">
+        <v>36</v>
+      </c>
+      <c r="H98" t="s">
+        <v>156</v>
+      </c>
+      <c r="I98" t="s">
+        <v>30</v>
+      </c>
+      <c r="J98" t="s">
+        <v>261</v>
+      </c>
+      <c r="K98" t="s">
+        <v>286</v>
+      </c>
+      <c r="L98" t="s">
+        <v>305</v>
+      </c>
+      <c r="M98" t="s">
+        <v>317</v>
+      </c>
+      <c r="N98" t="s">
+        <v>326</v>
+      </c>
+      <c r="O98" t="s">
+        <v>337</v>
+      </c>
+      <c r="P98" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17">
+      <c r="A99" t="s">
+        <v>16</v>
+      </c>
+      <c r="B99">
+        <v>78</v>
+      </c>
+      <c r="C99" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99" t="s">
+        <v>18</v>
+      </c>
+      <c r="E99" t="s">
+        <v>27</v>
+      </c>
+      <c r="F99" t="s">
+        <v>30</v>
+      </c>
+      <c r="G99" t="s">
+        <v>34</v>
+      </c>
+      <c r="H99" t="s">
+        <v>157</v>
+      </c>
+      <c r="I99" t="s">
+        <v>30</v>
+      </c>
+      <c r="J99" t="s">
+        <v>262</v>
+      </c>
+      <c r="K99" t="s">
+        <v>286</v>
+      </c>
+      <c r="L99" t="s">
+        <v>305</v>
+      </c>
+      <c r="M99" t="s">
+        <v>317</v>
+      </c>
+      <c r="N99" t="s">
+        <v>326</v>
+      </c>
+      <c r="O99" t="s">
+        <v>337</v>
+      </c>
+      <c r="P99" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17">
+      <c r="A100" t="s">
+        <v>16</v>
+      </c>
+      <c r="B100">
+        <v>78</v>
+      </c>
+      <c r="C100" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100" t="s">
+        <v>27</v>
+      </c>
+      <c r="F100" t="s">
+        <v>30</v>
+      </c>
+      <c r="G100" t="s">
+        <v>31</v>
+      </c>
+      <c r="H100" t="s">
+        <v>158</v>
+      </c>
+      <c r="I100" t="s">
+        <v>30</v>
+      </c>
+      <c r="J100" t="s">
+        <v>263</v>
+      </c>
+      <c r="K100" t="s">
+        <v>286</v>
+      </c>
+      <c r="L100" t="s">
+        <v>305</v>
+      </c>
+      <c r="M100" t="s">
+        <v>317</v>
+      </c>
+      <c r="N100" t="s">
+        <v>326</v>
+      </c>
+      <c r="O100" t="s">
+        <v>337</v>
+      </c>
+      <c r="P100" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17">
+      <c r="A101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101">
+        <v>30</v>
+      </c>
+      <c r="C101" t="s">
+        <v>17</v>
+      </c>
+      <c r="D101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" t="s">
+        <v>26</v>
+      </c>
+      <c r="F101" t="s">
+        <v>30</v>
+      </c>
+      <c r="G101" t="s">
+        <v>36</v>
+      </c>
+      <c r="H101" t="s">
+        <v>159</v>
+      </c>
+      <c r="I101" t="s">
+        <v>30</v>
+      </c>
+      <c r="J101" t="s">
+        <v>264</v>
+      </c>
+      <c r="K101" t="s">
+        <v>287</v>
+      </c>
+      <c r="L101" t="s">
+        <v>306</v>
+      </c>
+      <c r="M101" t="s">
+        <v>318</v>
+      </c>
+      <c r="N101" t="s">
+        <v>318</v>
+      </c>
+      <c r="O101" t="s">
+        <v>336</v>
+      </c>
+      <c r="P101" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17">
+      <c r="A102" t="s">
+        <v>16</v>
+      </c>
+      <c r="B102">
+        <v>30</v>
+      </c>
+      <c r="C102" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102" t="s">
+        <v>18</v>
+      </c>
+      <c r="E102" t="s">
+        <v>26</v>
+      </c>
+      <c r="F102" t="s">
+        <v>30</v>
+      </c>
+      <c r="G102" t="s">
+        <v>35</v>
+      </c>
+      <c r="H102" t="s">
+        <v>160</v>
+      </c>
+      <c r="I102" t="s">
+        <v>30</v>
+      </c>
+      <c r="J102" t="s">
+        <v>265</v>
+      </c>
+      <c r="K102" t="s">
+        <v>287</v>
+      </c>
+      <c r="L102" t="s">
+        <v>306</v>
+      </c>
+      <c r="M102" t="s">
+        <v>318</v>
+      </c>
+      <c r="N102" t="s">
+        <v>318</v>
+      </c>
+      <c r="O102" t="s">
+        <v>336</v>
+      </c>
+      <c r="P102" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17">
+      <c r="A103" t="s">
+        <v>16</v>
+      </c>
+      <c r="B103">
+        <v>30</v>
+      </c>
+      <c r="C103" t="s">
+        <v>17</v>
+      </c>
+      <c r="D103" t="s">
+        <v>18</v>
+      </c>
+      <c r="E103" t="s">
+        <v>26</v>
+      </c>
+      <c r="F103" t="s">
+        <v>30</v>
+      </c>
+      <c r="G103" t="s">
+        <v>34</v>
+      </c>
+      <c r="H103" t="s">
+        <v>161</v>
+      </c>
+      <c r="I103" t="s">
+        <v>30</v>
+      </c>
+      <c r="J103" t="s">
+        <v>266</v>
+      </c>
+      <c r="K103" t="s">
+        <v>287</v>
+      </c>
+      <c r="L103" t="s">
+        <v>306</v>
+      </c>
+      <c r="M103" t="s">
+        <v>318</v>
+      </c>
+      <c r="N103" t="s">
+        <v>318</v>
+      </c>
+      <c r="O103" t="s">
+        <v>336</v>
+      </c>
+      <c r="P103" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17">
+      <c r="A104" t="s">
+        <v>16</v>
+      </c>
+      <c r="B104">
+        <v>30</v>
+      </c>
+      <c r="C104" t="s">
+        <v>17</v>
+      </c>
+      <c r="D104" t="s">
+        <v>18</v>
+      </c>
+      <c r="E104" t="s">
+        <v>26</v>
+      </c>
+      <c r="F104" t="s">
+        <v>30</v>
+      </c>
+      <c r="G104" t="s">
+        <v>33</v>
+      </c>
+      <c r="H104" t="s">
+        <v>162</v>
+      </c>
+      <c r="I104" t="s">
+        <v>30</v>
+      </c>
+      <c r="J104" t="s">
+        <v>267</v>
+      </c>
+      <c r="K104" t="s">
+        <v>287</v>
+      </c>
+      <c r="L104" t="s">
+        <v>306</v>
+      </c>
+      <c r="M104" t="s">
+        <v>318</v>
+      </c>
+      <c r="N104" t="s">
+        <v>318</v>
+      </c>
+      <c r="O104" t="s">
+        <v>336</v>
+      </c>
+      <c r="P104" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17">
+      <c r="A105" t="s">
+        <v>16</v>
+      </c>
+      <c r="B105">
+        <v>30</v>
+      </c>
+      <c r="C105" t="s">
+        <v>17</v>
+      </c>
+      <c r="D105" t="s">
+        <v>18</v>
+      </c>
+      <c r="E105" t="s">
+        <v>26</v>
+      </c>
+      <c r="F105" t="s">
+        <v>30</v>
+      </c>
+      <c r="G105" t="s">
+        <v>31</v>
+      </c>
+      <c r="H105" t="s">
+        <v>163</v>
+      </c>
+      <c r="I105" t="s">
+        <v>30</v>
+      </c>
+      <c r="J105" t="s">
+        <v>268</v>
+      </c>
+      <c r="K105" t="s">
+        <v>287</v>
+      </c>
+      <c r="L105" t="s">
+        <v>306</v>
+      </c>
+      <c r="M105" t="s">
+        <v>318</v>
+      </c>
+      <c r="N105" t="s">
+        <v>318</v>
+      </c>
+      <c r="O105" t="s">
+        <v>336</v>
+      </c>
+      <c r="P105" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17">
+      <c r="A106" t="s">
+        <v>16</v>
+      </c>
+      <c r="B106">
+        <v>8</v>
+      </c>
+      <c r="C106" t="s">
+        <v>17</v>
+      </c>
+      <c r="D106" t="s">
+        <v>18</v>
+      </c>
+      <c r="E106" t="s">
+        <v>28</v>
+      </c>
+      <c r="F106" t="s">
+        <v>30</v>
+      </c>
+      <c r="G106" t="s">
+        <v>31</v>
+      </c>
+      <c r="H106" t="s">
+        <v>78</v>
+      </c>
+      <c r="I106" t="s">
+        <v>30</v>
+      </c>
+      <c r="J106" t="s">
+        <v>269</v>
+      </c>
+      <c r="K106" t="s">
+        <v>288</v>
+      </c>
+      <c r="L106" t="s">
+        <v>307</v>
+      </c>
+      <c r="M106" t="s">
+        <v>319</v>
+      </c>
+      <c r="N106" t="s">
+        <v>328</v>
+      </c>
+      <c r="O106" t="s">
+        <v>338</v>
+      </c>
+      <c r="P106" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17">
+      <c r="A107" t="s">
+        <v>16</v>
+      </c>
+      <c r="B107">
+        <v>-58</v>
+      </c>
+      <c r="C107" t="s">
+        <v>17</v>
+      </c>
+      <c r="D107" t="s">
+        <v>18</v>
+      </c>
+      <c r="E107" t="s">
+        <v>21</v>
+      </c>
+      <c r="F107" t="s">
+        <v>29</v>
+      </c>
+      <c r="G107" t="s">
+        <v>33</v>
+      </c>
+      <c r="H107" t="s">
+        <v>164</v>
+      </c>
+      <c r="I107" t="s">
+        <v>29</v>
+      </c>
+      <c r="J107" t="s">
+        <v>270</v>
+      </c>
+      <c r="K107" t="s">
+        <v>275</v>
+      </c>
+      <c r="L107" t="s">
+        <v>274</v>
+      </c>
+      <c r="M107" t="s">
+        <v>277</v>
+      </c>
+      <c r="N107" t="s">
+        <v>309</v>
+      </c>
+      <c r="O107" t="s">
+        <v>331</v>
+      </c>
+      <c r="P107" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>
